--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13320" yWindow="0" windowWidth="12360" windowHeight="15370" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3040" yWindow="1000" windowWidth="20960" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -89,6 +89,27 @@
       <sz val="8"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움체"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -147,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -191,12 +212,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -216,6 +231,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -581,19 +633,19 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col width="24.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="53.5" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="47.5" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="44.5" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="12.5" bestFit="1" customWidth="1" style="23" min="5" max="5"/>
+    <col width="12.5" bestFit="1" customWidth="1" style="21" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
@@ -623,59 +675,60 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="303" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>오늘 학식을 알려줘</t>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>학식</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="303" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1">
+      <c r="A3" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>오늘 아침을 알려줘</t>
+      <c r="B3" s="23" t="inlineStr">
+        <is>
+          <t>오늘 학식을 알려줘</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -683,29 +736,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="303" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" ht="25" customHeight="1">
+      <c r="A4" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>오늘 점심을 알려줘</t>
+      <c r="B4" s="23" t="inlineStr">
+        <is>
+          <t>오늘 학식 알려줘</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -713,29 +766,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="207" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="A5" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>오늘 저녁을 알려줘</t>
+      <c r="B5" s="23" t="inlineStr">
+        <is>
+          <t>오늘 학식 뭐야</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -743,13 +796,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="207" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+    <row r="6" ht="25" customHeight="1">
+      <c r="A6" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="23" t="inlineStr">
         <is>
           <t>오늘 학식 뭐나와</t>
         </is>
@@ -758,14 +811,14 @@
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -773,29 +826,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="207" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="7" ht="25" customHeight="1">
+      <c r="A7" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>오늘 교내 식당 메뉴</t>
+      <c r="B7" s="22" t="inlineStr">
+        <is>
+          <t>오늘 아침을 알려줘</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -803,29 +856,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="207" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="8" ht="25" customHeight="1">
+      <c r="A8" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>교내 식당 메뉴 알려줘</t>
+      <c r="B8" s="22" t="inlineStr">
+        <is>
+          <t>오늘 점심을 알려줘</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -833,29 +886,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="207" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="9" ht="25" customHeight="1">
+      <c r="A9" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>교직원 식당 메뉴 알려줘</t>
+      <c r="B9" s="22" t="inlineStr">
+        <is>
+          <t>오늘 저녁을 알려줘</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -863,29 +916,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="207" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
+    <row r="10" ht="25" customHeight="1">
+      <c r="A10" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>조식 알려줘</t>
+      <c r="B10" s="24" t="inlineStr">
+        <is>
+          <t>오늘 학식 메뉴 뭐야</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -893,29 +946,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="207" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="11" ht="25" customHeight="1">
+      <c r="A11" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>중식 알려줘</t>
+      <c r="B11" s="22" t="inlineStr">
+        <is>
+          <t>오늘 교내 식당 메뉴</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -923,29 +976,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="207" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
+    <row r="12" ht="25" customHeight="1">
+      <c r="A12" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>석식 알려줘</t>
+      <c r="B12" s="22" t="inlineStr">
+        <is>
+          <t>교내 식당 메뉴 알려줘</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -953,29 +1006,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="207" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>오늘 식사 메뉴</t>
+      <c r="B13" s="22" t="inlineStr">
+        <is>
+          <t>교직원 식당 메뉴 알려줘</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -983,29 +1036,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="207" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
+    <row r="14" ht="25" customHeight="1">
+      <c r="A14" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>학생 식당에 대해 알려줘</t>
+      <c r="B14" s="24" t="inlineStr">
+        <is>
+          <t>오늘 조식(아침) 뭐야</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1013,29 +1066,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="207" customHeight="1">
-      <c r="A15" s="4" t="inlineStr">
+    <row r="15" ht="25" customHeight="1">
+      <c r="A15" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>교직원 식당에 대해 알려줘</t>
+      <c r="B15" s="23" t="inlineStr">
+        <is>
+          <t>조식 알려줘</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1043,29 +1096,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="207" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
+    <row r="16" ht="25" customHeight="1">
+      <c r="A16" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>학생 식당 위치에 대해 알려줘</t>
+      <c r="B16" s="24" t="inlineStr">
+        <is>
+          <t>오늘 중식(점심) 뭐야</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1073,180 +1126,348 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="152.25" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
+    <row r="17" ht="25" customHeight="1">
+      <c r="A17" s="22" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>교직원 식당 위치를 알려줘</t>
+      <c r="B17" s="22" t="inlineStr">
+        <is>
+          <t>중식 알려줘</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="25" customHeight="1">
+      <c r="A18" s="22" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B18" s="24" t="inlineStr">
+        <is>
+          <t>오늘 석식(저녁) 뭐야</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"2024년 11월 25일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+ &lt;br&gt;
+교직원식당  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
 "
 </t>
         </is>
       </c>
-      <c r="E17" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="25" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="25" customHeight="1">
+      <c r="A19" s="22" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B19" s="22" t="inlineStr">
+        <is>
+          <t>석식 알려줘</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"2024년 11월 25일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+ &lt;br&gt;
+교직원식당  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+"
+</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="25" customHeight="1">
+      <c r="A20" s="22" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B20" s="22" t="inlineStr">
+        <is>
+          <t>오늘 식사 메뉴</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"2024년 11월 25일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+ &lt;br&gt;
+교직원식당  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+"
+</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="25" customHeight="1">
+      <c r="A21" s="22" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B21" s="23" t="inlineStr">
+        <is>
+          <t>오늘 식사 메뉴 뭐야</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"2024년 11월 25일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+ &lt;br&gt;
+교직원식당  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+"
+</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="25" customHeight="1">
+      <c r="A22" s="22" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>연락처를 검색하고 싶어</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="B22" s="24" t="inlineStr">
+        <is>
+          <t>연락처 검색</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>"연락처 검색"</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E22" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="25" customHeight="1">
-      <c r="A19" s="4" t="inlineStr">
+    <row r="23" ht="25" customHeight="1">
+      <c r="A23" s="22" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>교내 연락처 검색하고 싶어</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="B23" s="23" t="inlineStr">
+        <is>
+          <t>교내 연락처 검색</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>"연락처 검색"</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E23" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="25" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
+    <row r="24" ht="25" customHeight="1">
+      <c r="A24" s="22" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>컴퓨터공학과 번호 검색하고 싶어</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="B24" s="23" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과 번호 검색</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">컴퓨터공학과 과사무실 연락처입니다.
 02 - </t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E24" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="25" customHeight="1">
-      <c r="A21" s="4" t="inlineStr">
+    <row r="25" ht="25" customHeight="1">
+      <c r="A25" s="22" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>교수님 연락처 검색하고 싶어</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="B25" s="23" t="inlineStr">
+        <is>
+          <t>교수님 번호 검색</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E25" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="25" customHeight="1">
-      <c r="A22" s="4" t="inlineStr">
+    <row r="26" ht="25" customHeight="1">
+      <c r="A26" s="22" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>사무실 번호 검색하고 싶어</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="B26" s="23" t="inlineStr">
+        <is>
+          <t>교수님 연락처 검색</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E26" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" ht="25" customHeight="1">
-      <c r="A23" s="4" t="inlineStr">
+    <row r="27" ht="25" customHeight="1">
+      <c r="A27" s="22" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>전화번호 검색하고 싶어</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="B27" s="24" t="inlineStr">
+        <is>
+          <t>사무실 연락처 검색</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E27" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="25" customHeight="1">
-      <c r="A24" s="4" t="inlineStr">
+    <row r="28" ht="25" customHeight="1">
+      <c r="A28" s="22" t="inlineStr">
+        <is>
+          <t>연락처</t>
+        </is>
+      </c>
+      <c r="B28" s="23" t="inlineStr">
+        <is>
+          <t>사무실 번호 검색</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>부서명, 교직원/교수님</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="25" customHeight="1">
+      <c r="A29" s="22" t="inlineStr">
+        <is>
+          <t>연락처</t>
+        </is>
+      </c>
+      <c r="B29" s="23" t="inlineStr">
+        <is>
+          <t>전화번호 검색</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>부서명, 교직원/교수님</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="25" customHeight="1">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="B24" s="7" t="inlineStr">
+      <c r="B30" s="7" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
@@ -1273,23 +1494,23 @@
 </t>
         </is>
       </c>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="25" customHeight="1">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="25" customHeight="1">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>학교 공지사항을 보고싶어</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
@@ -1316,22 +1537,22 @@
 </t>
         </is>
       </c>
-      <c r="E25" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="25" customHeight="1">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="E31" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="25" customHeight="1">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>새로 올라온 공지사항을 보고싶어</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
@@ -1358,22 +1579,22 @@
 </t>
         </is>
       </c>
-      <c r="E26" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="25" customHeight="1">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="25" customHeight="1">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>공지사항 새로 올라온 게 있어?</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
@@ -1400,22 +1621,22 @@
 </t>
         </is>
       </c>
-      <c r="E27" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="25" customHeight="1">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="E33" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="25" customHeight="1">
+      <c r="A34" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>학교 편의시설에 대한 정보를 알려줘</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="B34" s="26" t="inlineStr">
+        <is>
+          <t>편의시설</t>
+        </is>
+      </c>
+      <c r="C34" s="25" t="inlineStr">
         <is>
           <t>학교 내 편의시설 목록은 다음과 같습니다. &lt;br&gt;
 &lt;학교 편의시설 목록&gt; &lt;br&gt;
@@ -1435,22 +1656,58 @@
 기숙사 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E28" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="25" customHeight="1">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="D34" s="27" t="n"/>
+      <c r="E34" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="25" customHeight="1">
+      <c r="A35" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>학교 카페에 대한 정보를 알려줘</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="B35" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 편의시설에 대한 정보를 알려줘</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>학교 내 편의시설 목록은 다음과 같습니다. &lt;br&gt;
+&lt;학교 편의시설 목록&gt; &lt;br&gt;
+카페 &lt;br&gt;
+편의점 &lt;br&gt;
+서적/문구 &lt;br&gt;
+기타시설 &lt;br&gt;
+컴퓨터매장 &lt;br&gt;
+여행사 &lt;br&gt;
+은행 &lt;br&gt;
+약국 &lt;br&gt;외부식당 &lt;br&gt;
+출력센터 &lt;br&gt;
+사진관 &lt;br&gt;
+학생/교직원식당 &lt;br&gt;
+꽃집 &lt;br&gt;
+체육시설 &lt;br&gt;
+기숙사 &lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="25" customHeight="1">
+      <c r="A36" s="25" t="inlineStr">
+        <is>
+          <t>편의시설</t>
+        </is>
+      </c>
+      <c r="B36" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 카페에 대한 정보를 알려줘</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>학교 내 카페 목록은 다음과 같습니다. &lt;br&gt;
 &lt;br&gt;
@@ -1464,22 +1721,22 @@
 카페 나무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E29" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="E36" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A37" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>학교 베이커리에 대한 정보를 알려줘</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="B37" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 베이커리에 대한 정보를 알려줘</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>학교 내 카페 목록은 다음과 같습니다. &lt;br&gt;
 &lt;br&gt;
@@ -1493,23 +1750,23 @@
 카페 나무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A38" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B38" s="25" t="inlineStr">
         <is>
           <t>카페드림에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>편의시설: 카페(카페드림) &lt;br&gt;
 아메리카노(HOT/ICE): 2,100원, 아이스크림: 2,000원
@@ -1523,23 +1780,23 @@
 [2F] 평일,주말,공휴일: 09:00~23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="D38" s="3" t="n"/>
+      <c r="E38" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A39" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B39" s="25" t="inlineStr">
         <is>
           <t>카페 캠퍼에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>편의시설: 카페(캠퍼) &lt;br&gt;
 홍익대학교 제2기숙사 지하1층에 위치한 까페 캠퍼입니다. &lt;br&gt;
@@ -1548,23 +1805,23 @@
 (평일) 08:00-21:00 (토요일) 12:00-18:00 (일요일) 휴무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A40" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B40" s="25" t="inlineStr">
         <is>
           <t>북카페 카페아이엔지에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>편의시설: 북카페(카페아이엔지) &lt;br&gt;
 중앙도서관 3층에 위치한 북까페 입니다. &lt;br&gt;
@@ -1573,23 +1830,23 @@
 (일요일/공휴일) 휴무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="D40" s="3" t="n"/>
+      <c r="E40" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A41" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B41" s="25" t="inlineStr">
         <is>
           <t>카페, 빵집 파브리카에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>편의시설: 카페/빵집(파브리카) &lt;br&gt;
 커피와 베이커리를 연구하고 만듭니다. &lt;br&gt;
@@ -1598,23 +1855,23 @@
 am08:00 – pm08:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D34" s="3" t="n"/>
-      <c r="E34" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A42" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B42" s="25" t="inlineStr">
         <is>
           <t>카페 그라찌에에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>편의시설: 카페(그라찌에) &lt;br&gt;
 커피, 음료, 생과일주스, 버블티, 베이커리 등 
@@ -1624,23 +1881,23 @@
 (평일) 08:00 – 20:00 (주말) 09:00 – 18:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A43" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B43" s="25" t="inlineStr">
         <is>
           <t>과일카페 푸르타에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>편의시설: 과일주스전문점(푸르타) &lt;br&gt;
 어디서도 보지못한 프리미엄 과일카페, 
@@ -1649,23 +1906,23 @@
 평일 : am09:00 - pm07:00 (학기중) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="D43" s="3" t="n"/>
+      <c r="E43" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A44" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B44" s="25" t="inlineStr">
         <is>
           <t>카페나무에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>편의시설: 카페(카페나무) &lt;br&gt;
 깊은 향의 커피, 
@@ -1688,23 +1945,23 @@
 주말/공휴일, 학기중 : 휴무 방학중 : 휴무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="D44" s="3" t="n"/>
+      <c r="E44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A45" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>학교 편의점에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="B45" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 편의점에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>학교 내 편의점 목록은 다음과 같습니다 &lt;br&gt;
 &lt;br&gt;
@@ -1713,23 +1970,23 @@
 편의점 바이스마트 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A46" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B46" s="25" t="inlineStr">
         <is>
           <t>편의점 이마트24에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>편의시설: 편의점(이마트24) &lt;br&gt;
 딜리셔스 아이디어, 
@@ -1739,23 +1996,23 @@
 24시간 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D39" s="3" t="n"/>
-      <c r="E39" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="D46" s="3" t="n"/>
+      <c r="E46" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A47" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B47" s="25" t="inlineStr">
         <is>
           <t>편의점 바이스마트에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>편의시설: 편의점(바이스마트) &lt;br&gt;
 매일매일 제공되는 신선한 일일식품 
@@ -1768,23 +2025,23 @@
 주말/공휴일, 방학중 : 무인운영 05:30~23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="D47" s="3" t="n"/>
+      <c r="E47" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A48" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>학교 서점에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="B48" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 서점에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>편의시설: 서점(대학서적) &lt;br&gt;
 취급도서 : 대학교재, 일반단행본, 어학 교재, 잡지 등
@@ -1795,23 +2052,23 @@
 토요일 : am09:00 - pm02:00 (학기중) 일요일 및 공휴일 휴무 &lt;br.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="n"/>
-      <c r="E41" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="D48" s="3" t="n"/>
+      <c r="E48" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A49" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>학교 문구점에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C42" s="10" t="inlineStr">
+      <c r="B49" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 문구점에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C49" s="10" t="inlineStr">
         <is>
           <t>편의시설: 문구/화방(한가람문구) &lt;br&gt;
 취급품목 :
@@ -1821,23 +2078,23 @@
 평일 : am08:30 - pm8:30 주말 및 공휴일 : am10:00 - pm08:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D42" s="3" t="n"/>
-      <c r="E42" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="D49" s="3" t="n"/>
+      <c r="E49" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A50" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B50" s="25" t="inlineStr">
         <is>
           <t>화방 한가람문구에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C43" s="10" t="inlineStr">
+      <c r="C50" s="10" t="inlineStr">
         <is>
           <t>편의시설: 문구/화방(한가람문구) &lt;br&gt;
 취급품목 :
@@ -1847,23 +2104,23 @@
 평일 : am08:30 - pm8:30 주말 및 공휴일 : am10:00 - pm08:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D43" s="3" t="n"/>
-      <c r="E43" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="D50" s="3" t="n"/>
+      <c r="E50" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A51" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B51" s="25" t="inlineStr">
         <is>
           <t>대학서적을 판매하는 곳에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>편의시설: 서점(대학서적) &lt;br&gt;
 취급도서 : 대학교재, 일반단행본, 어학 교재, 잡지 등
@@ -1874,23 +2131,23 @@
 토요일 : am09:00 - pm02:00 (학기중) 일요일 및 공휴일 휴무 &lt;br.</t>
         </is>
       </c>
-      <c r="D44" s="3" t="n"/>
-      <c r="E44" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A52" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>학교 주차창에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="B52" s="26" t="inlineStr">
+        <is>
+          <t>주차장</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>편의시설: 주차장(홍문관(R동)) &lt;br&gt;
 주차 안내 : 홍문관(R동) 지하 2, 3, 4층 &lt;br&gt;
@@ -1899,23 +2156,23 @@
 홍문관(R동) 지하 2, 3, 4층 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="D52" s="3" t="n"/>
+      <c r="E52" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A53" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>컴퓨터전자매장 비전플러스에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="B53" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 주차창에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>편의시설: 컴퓨터전자매장 비젼플러스 &lt;br&gt;
 홍문관(R동) 지하2층에 위치한 PC와 컴퓨터 판매매장 비전플러스 입니다. &lt;br&gt;
@@ -1923,23 +2180,23 @@
 전화 : 02-325-3211 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D46" s="3" t="n"/>
-      <c r="E46" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A54" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>여행사 마실에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="B54" s="25" t="inlineStr">
+        <is>
+          <t>컴퓨터전자매장 비전플러스에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>편의시설: 여행사(마실) &lt;br&gt;
 홍문관 지하2층에 위치한 여행사입니다. &lt;br&gt;
@@ -1948,23 +2205,23 @@
 09:00 - 18:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D47" s="3" t="n"/>
-      <c r="E47" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A55" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>신한은행에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="B55" s="25" t="inlineStr">
+        <is>
+          <t>여행사 마실에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>편의시설: 은행(신한은행) &lt;br&gt;
 홍익대학교 홍문관 1층에 위치한 신한은행입니다. &lt;br&gt;
@@ -1975,23 +2232,23 @@
 유어스마트라운지 : (평일) 09:00 - 21:00 (주말/공휴일) 12:00 - 18:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D48" s="3" t="n"/>
-      <c r="E48" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A56" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>원이약국에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="B56" s="25" t="inlineStr">
+        <is>
+          <t>신한은행에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>편의시설: 약국(원이약국) &lt;br&gt;
 홍익대학교 제2기숙사 지하1층에 위치한 약국 입니다. &lt;br&gt;
@@ -2000,23 +2257,23 @@
 (평일) 08:30 - 23:00 (주말) 11:00 - 22:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D49" s="3" t="n"/>
-      <c r="E49" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="D56" s="3" t="n"/>
+      <c r="E56" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A57" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B57" s="25" t="inlineStr">
         <is>
           <t>중식당 향차이에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>편의시설: 중식당(향차이) &lt;br&gt;
 홍익대학교 제2기숙사 지하1층에 위치한 중식당 향차이 입니다. &lt;br&gt;
@@ -2025,23 +2282,23 @@
 11:40-21:00 (15:00-16:30 브레이크타임 )&lt;br&gt;</t>
         </is>
       </c>
-      <c r="D50" s="3" t="n"/>
-      <c r="E50" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A58" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B58" s="25" t="inlineStr">
         <is>
           <t>출력센터 에이제이네트웍스에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>편의시설: 출력센터(에이제이네트웍스) &lt;br&gt;
 후불교통카드로 각 건물에 배치된 출력기에서 출력가능 
@@ -2058,23 +2315,23 @@
 방학기간  평일 : am09:00 - pm06:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D51" s="3" t="n"/>
-      <c r="E51" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="D58" s="3" t="n"/>
+      <c r="E58" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A59" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B59" s="25" t="inlineStr">
         <is>
           <t>뷔페식당 마루샤브에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>편의시설: 뷔페식당(마루샤브) &lt;br&gt;
 샤브샤브와 샐러드바를 즐길수 있는 패밀리레스토랑 입니다 &lt;br&gt;
@@ -2082,23 +2339,23 @@
 11:30-21:30 (평일) (15:00-17:30 브레이크 타임) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D52" s="3" t="n"/>
-      <c r="E52" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A60" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B60" s="25" t="inlineStr">
         <is>
           <t>사진관 스튜디오홍대에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>편의시설: 사진관(스튜디오홍대) &lt;br&gt;
 작품, 증명(반명함, 여권, 비자, 외국인등록증용 사진), 학사모 촬영 &lt;br&gt; 
@@ -2110,23 +2367,23 @@
 (토요일) 11:00 - 17:00 (일요일/공휴일) 휴무, 예약촬영만 가능</t>
         </is>
       </c>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A61" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B61" s="25" t="inlineStr">
         <is>
           <t>꽃집 세란꽃방에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>편의시설: 꽃집(세란꽃방) &lt;br&gt;
 싱싱한 꽃다발과 꽃바구니, 양난,화분 등을 판매하고있습니다. &lt;br&gt;
@@ -2136,23 +2393,23 @@
 주말/공휴일, 학기중 : 휴무 방학중 : 휴무</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A55" s="3" t="inlineStr">
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A62" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>학교 체육시설에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="B62" s="29" t="inlineStr">
+        <is>
+          <t>체육시설에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>학교 내 체육시설 목록은 다음과 같습니다. &lt;br&gt;
 &lt;br&gt;
@@ -2169,23 +2426,23 @@
 운동장기구실 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="D62" s="3" t="n"/>
+      <c r="E62" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A63" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>학교 농구장에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="B63" s="29" t="inlineStr">
+        <is>
+          <t>농구장에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 농구장 &lt;br&gt;
 농구장은 언제나 농구를 즐기는 홍익인들로 붐빈다. 농구를 좋아하는 홍익인이라면 누구나 농구장을 자유롭게 사용할 수 있다. 농구공은 운동장 기구실에서 학생증을 맡기고 빌릴 수 있다. 농구장 뒤로는 스탠드가 잘 갖추어져 있어 자유롭게 농구 경기를 관람할 수도 있다. 농구장에서는 각종 개인적 경기뿐 아니라 단대별 체육행사 및 5월 점프(농구동아리) 배 4:4 농구 대회도 열린다. &lt;br&gt; &lt;br&gt;
@@ -2194,23 +2451,23 @@
 이용방법 : (학기 전) 학생지원팀 일괄 추첨 진행 / (학기 중) 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D56" s="3" t="n"/>
-      <c r="E56" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A64" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>학교 배구장에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="B64" s="29" t="inlineStr">
+        <is>
+          <t>배구장에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 배구장 &lt;br&gt;
 배구장은 체육관 경기장 내에 위치하고 있으며 
@@ -2221,23 +2478,23 @@
 이용방법 : 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D57" s="3" t="n"/>
-      <c r="E57" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="D64" s="3" t="n"/>
+      <c r="E64" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A65" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>학교 배드민턴장에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="B65" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 배드민턴장에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 배드민턴장 &lt;br&gt;
 배드민턴장은 체육관 경기장 내에 위치하고 있으며 
@@ -2249,23 +2506,23 @@
 이용방법 : 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="D65" s="3" t="n"/>
+      <c r="E65" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A66" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>학교 체력단련실에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="B66" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 체력단련실에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 체력단련실 &lt;br&gt; 
  &lt;br&gt;
@@ -2277,23 +2534,23 @@
 이용방법 : 헬스부 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D59" s="3" t="n"/>
-      <c r="E59" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A67" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
-          <t>학교 검도장에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="B67" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 검도장에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 검도장 &lt;br&gt; &lt;br&gt;
 검도장은 제2기숙사 지하 4층에 위치하고 있다. 검도장은 동아리 검도부에서 일괄적인 관리를 담당하고 있으며, 매일 17:00~19:30에는 검도부 연습이 있다. 검도장에는 검도부원들의 호구, 호면, 갑, 죽도 등이 구비되어 있다.
@@ -2303,23 +2560,23 @@
 이용방법 : 검도부 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D60" s="3" t="n"/>
-      <c r="E60" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="D67" s="3" t="n"/>
+      <c r="E67" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A68" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>학교 태권도실에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="B68" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 태권도실에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 태권도실 &lt;br&gt;
 제2기숙사 지하 4층에 위치한 태권도실은 15명 이상의 학생이 넓게 서서 운동할 수 있을 만큼의 규모를 갖추고 있다. 태권도실은 동아리 태권도부에서 일괄적으로 관리를 하고 있으며, 태권도부 연습이 매일 17:00~19:30에 있다. &lt;br&gt; 
@@ -2330,23 +2587,23 @@
 이용방법 : 태권도부 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D61" s="3" t="n"/>
-      <c r="E61" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="D68" s="3" t="n"/>
+      <c r="E68" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A69" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t>학교 탁구장에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="B69" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 탁구장에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 탁구장 &lt;br&gt; &lt;br&gt;
 학생 및 교직원 대상으로 이용 가능하다. &lt;br&gt;
@@ -2356,23 +2613,23 @@
 이용방법 : 수시이용 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D62" s="3" t="n"/>
-      <c r="E62" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A63" s="3" t="inlineStr">
+      <c r="D69" s="3" t="n"/>
+      <c r="E69" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A70" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>학교 체육관경기장에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="B70" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 체육관경기장에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 체육관경기장 &lt;br&gt; &lt;br&gt;
 경기장은 1,127m²(무대 152m²포함)의 규모로써 1,592석의 스탠드를 갖추고 있다. 경기장의 980.2m²(37.7m x 26m) 의 메인코트에서는 농구, 배구, 배드민턴, 탁구, 권투, 검도, 태권도, 펜싱, 유도, 체조, 레슬링 등의 각종 실내경기를 즐길 수 있다.  &lt;br&gt;
@@ -2382,23 +2639,23 @@
 이용방법 : 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D63" s="3" t="n"/>
-      <c r="E63" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="D70" s="3" t="n"/>
+      <c r="E70" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A71" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>학교 대운동장에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="B71" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 대운동장에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 대운동장 &lt;br&gt; &lt;br&gt;
 학교 정문을 들어서자마자 탁 트인 하늘과 맞닿아 있는 약 6,000평의 대운동장에서는 언제나 활기찬 모습의 홍익인들을 만날 수 있다. 대운동장은 특히 수업이 끝난 이후에 축구, 농구, 발야구 등을 즐기고자 하는 학생들로 붐빈다. 야간 스탠드 장비가 설치되어 있어 늦게까지 시간에 구애받지 않고 즐거운 여가 생활을 즐길 수가 있다.  &lt;br&gt;
@@ -2409,23 +2666,23 @@
 이용방법 : (학기 전) 학생지원팀 일괄 추첨 진행 / (학기 중) 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D64" s="3" t="n"/>
-      <c r="E64" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A72" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>학교 운동장기구실에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="B72" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 운동장기구실에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 운동장기구실 &lt;br&gt; &lt;br&gt;
 운동장 기구실은 대운동장 스탠드 본부 아래에 위치하고 있다. 홍익인이라면 누구나 학생증을 제시하고 축구공, 배구공, 농구공과 라이너, 점수판, 호루라기 등 각종 체육 장비들을 대여할 수 있다. &lt;br&gt;
@@ -2436,23 +2693,23 @@
 이용방법 : 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D65" s="3" t="n"/>
-      <c r="E65" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A66" s="3" t="inlineStr">
+      <c r="D72" s="3" t="n"/>
+      <c r="E72" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A73" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>학교 기숙사에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
+      <c r="B73" s="29" t="inlineStr">
+        <is>
+          <t>기숙사에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>"홍익대학교 기숙사에 대한 설명입니다. &lt;br&gt;
 &lt;br&gt;
@@ -2478,23 +2735,23 @@
 홍익대학교에는 제1기숙사, 제2기숙사, 제3기숙사가 있습니다. &lt;br&gt; 각각의 기숙사에 대한 정보를 알고 싶으면 각 기숙사를 검색해주세요</t>
         </is>
       </c>
-      <c r="D66" s="3" t="n"/>
-      <c r="E66" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A67" s="3" t="inlineStr">
+      <c r="D73" s="3" t="n"/>
+      <c r="E73" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A74" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B74" s="25" t="inlineStr">
         <is>
           <t>제1기숙사에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
+      <c r="C74" s="3" t="inlineStr">
         <is>
           <t>제1기숙사(대학원생용 남문관, 합숙소 시설 포함) &lt;br&gt; &lt;br&gt;
 제1기숙사는 노후화된 시설이기에 2024년에 최첨단 시설로 재건축 공사 착공 예정이어서 2024년 2월까지만 운영 예정이다. &lt;br&gt;
@@ -2513,23 +2770,23 @@
 화장실, 샤워실, 휴게실, 세탁실, 열람실 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D67" s="3" t="n"/>
-      <c r="E67" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A68" s="3" t="inlineStr">
+      <c r="D74" s="3" t="n"/>
+      <c r="E74" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A75" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B75" s="25" t="inlineStr">
         <is>
           <t>제2기숙사에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>위치 : 서울시 마포구 와우산로 94 (04066) &lt;br&gt;
 전화 : 02-320-2402～2405 (2402 ~ 2405) &lt;br&gt;
@@ -2547,23 +2804,23 @@
 식당, 휴게실, 세탁실, 체력단련실, 열람실, 편의점, 택배보관실&lt;br&gt;</t>
         </is>
       </c>
-      <c r="D68" s="3" t="n"/>
-      <c r="E68" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="D75" s="3" t="n"/>
+      <c r="E75" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A76" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B76" s="25" t="inlineStr">
         <is>
           <t>제3기숙사에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
+      <c r="C76" s="3" t="inlineStr">
         <is>
           <t>위치 : 서울시 마포구 성미산로 55 (03967) &lt;br&gt;
 전화 : 02-338-7440 &lt;br&gt;
@@ -2581,46 +2838,46 @@
 공동조리실, 휴게실, 세탁실, 체력단련실, 열람실, 편의점, 택배보관실 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D69" s="3" t="n"/>
-      <c r="E69" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" ht="140" customFormat="1" customHeight="1" s="8">
-      <c r="A70" s="3" t="inlineStr">
+      <c r="D76" s="3" t="n"/>
+      <c r="E76" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A77" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B70" s="11" t="inlineStr">
-        <is>
-          <t>학교 박물관에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="B77" s="30" t="inlineStr">
+        <is>
+          <t>박물관에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
         <is>
           <t>홍익대학교 박물관은 선사시대 고미술품부터 근·현대회화, 조각, 도예 등의 시대를 망라하는 다양한 종류의 미술품을 소장하고 있으며 전시와 연구, 교육을 중심으로 운영하는 박물관입니다!&lt;br&gt;
 위치: 서울캠퍼스 문헌관(MH동) 2, 3층&lt;br&gt;
 전화 : 02-320-1322~4&lt;br&gt;</t>
         </is>
       </c>
-      <c r="D70" s="3" t="n"/>
-      <c r="E70" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="356" customFormat="1" customHeight="1" s="8">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="D77" s="3" t="n"/>
+      <c r="E77" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A78" s="25" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B71" s="11" t="inlineStr">
-        <is>
-          <t>학교 현대미술관에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="B78" s="30" t="inlineStr">
+        <is>
+          <t>현대미술관에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
         <is>
           <t>홍익대학교 현대미술관은 현대미술의 실험과 확장을 모색하는 기획전 및 동문 작가 초대전을 여는 동시에 우리나라의 현대미술을 이끌어 갈 신진 및 현역 작가에게 작품 발표의 기회를 제공하여 한국 현대미술의 발전에 기여하고자 노력하고 있습니다!&lt;br&gt;
 위치: 서울캠퍼스 문헌관(MH동) 4층(1관), 홍문관(R동) 2층(2관)&lt;br&gt;
@@ -2635,88 +2892,113 @@
 이용가능시간 : 10:00 ~ 18:00 (수~일)&lt;br&gt;</t>
         </is>
       </c>
-      <c r="D71" s="3" t="n"/>
-      <c r="E71" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="25" customHeight="1">
-      <c r="A72" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="D78" s="3" t="n"/>
+      <c r="E78" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A79" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B79" s="26" t="inlineStr">
+        <is>
+          <t>학교 일정에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C79" s="22" t="inlineStr">
+        <is>
+          <t>"몇 월 학사일정이 궁금하세요?"</t>
+        </is>
+      </c>
+      <c r="D79" s="22" t="inlineStr">
+        <is>
+          <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" ht="25" customHeight="1">
+      <c r="A80" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B80" s="25" t="inlineStr">
         <is>
           <t>학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C72" s="4" t="inlineStr">
-        <is>
-          <t>"{해당}월에 대한 학사일정 출력"</t>
-        </is>
-      </c>
-      <c r="D72" s="4" t="inlineStr">
+      <c r="C80" s="22" t="inlineStr">
+        <is>
+          <t>"몇 월 학사일정이 궁금하세요?"</t>
+        </is>
+      </c>
+      <c r="D80" s="22" t="inlineStr">
         <is>
           <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
         </is>
       </c>
-      <c r="E72" s="6" t="n">
+      <c r="E80" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="25" customHeight="1">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
+    <row r="81" ht="25" customHeight="1">
+      <c r="A81" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B81" s="25" t="inlineStr">
         <is>
           <t>이번달 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="D73" s="4" t="inlineStr">
+      <c r="D81" s="4" t="inlineStr">
         <is>
           <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
         </is>
       </c>
-      <c r="E73" s="6" t="n">
+      <c r="E81" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="74" ht="25" customHeight="1">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B74" s="3" t="inlineStr">
+    <row r="82" ht="25" customHeight="1">
+      <c r="A82" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B82" s="25" t="inlineStr">
         <is>
           <t>다음달 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="D74" s="4" t="inlineStr">
+      <c r="D82" s="4" t="inlineStr">
         <is>
           <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
         </is>
       </c>
-      <c r="E74" s="6" t="n">
+      <c r="E82" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="75" ht="25" customHeight="1">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="inlineStr">
+    <row r="83" ht="25" customHeight="1">
+      <c r="A83" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B83" s="25" t="inlineStr">
         <is>
           <t>1월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C75" s="3" t="inlineStr">
+      <c r="C83" s="3" t="inlineStr">
         <is>
           <t>1월 학사일정&lt;br&gt; &lt;br&gt;
 2024학년도 신입생 정시모집 입학전형: 12월 1일(금) ~ 2월 29일(목) &lt;br&gt; 
@@ -2724,22 +3006,22 @@
 2024학년도 1학기 복학신청: 24일(수) ~ 2월 1일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E75" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" ht="25" customHeight="1">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="E83" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="25" customHeight="1">
+      <c r="A84" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B84" s="25" t="inlineStr">
         <is>
           <t>2월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
+      <c r="C84" s="3" t="inlineStr">
         <is>
           <t>2월  학사일정&lt;br&gt; &lt;br&gt;
 2024학년도 신입생 정시모집 입학전형: 12월 1일(금) ~ 29일(목) &lt;br&gt;
@@ -2752,22 +3034,22 @@
 2024학년도 1학기 수강신청: 23일(금) ~ 28일(수) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E76" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" ht="25" customHeight="1">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="inlineStr">
+      <c r="E84" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="25" customHeight="1">
+      <c r="A85" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B85" s="25" t="inlineStr">
         <is>
           <t>3월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C77" s="3" t="inlineStr">
+      <c r="C85" s="3" t="inlineStr">
         <is>
           <t>3월  학사일정&lt;br&gt; &lt;br&gt;
 삼일절: 1일(금) &lt;br&gt;
@@ -2777,22 +3059,22 @@
 강의중간평가: 29일(금) ~ 4월 19일(금) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E77" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="25" customHeight="1">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
+      <c r="E85" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="25" customHeight="1">
+      <c r="A86" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B86" s="25" t="inlineStr">
         <is>
           <t>4월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C78" s="3" t="inlineStr">
+      <c r="C86" s="3" t="inlineStr">
         <is>
           <t>4월  학사일정&lt;br&gt; &lt;br&gt; 
 강의중간평가: 3월 29일(금) ~ 19일(금) &lt;br&gt;
@@ -2800,22 +3082,22 @@
 2024학년도 1학기 사이버강좌 중간고사: 20일(토) ~ 21일(일) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E78" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="25" customHeight="1">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="inlineStr">
+      <c r="E86" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="25" customHeight="1">
+      <c r="A87" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B87" s="25" t="inlineStr">
         <is>
           <t>5월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C79" s="3" t="inlineStr">
+      <c r="C87" s="3" t="inlineStr">
         <is>
           <t>5월  학사일정&lt;br&gt; &lt;br&gt;
 2024년 후기 신입생(외국인) 입학전형: 1일(수) ~ 7월 31일(월) &lt;br&gt;
@@ -2828,22 +3110,22 @@
 2024학년도 2학기 교내장학금 신청(~6.20(목) 18시): 21일(화) ~ 6월 20일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E79" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="25" customHeight="1">
-      <c r="A80" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B80" s="3" t="inlineStr">
+      <c r="E87" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" ht="25" customHeight="1">
+      <c r="A88" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B88" s="25" t="inlineStr">
         <is>
           <t>6월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C80" s="3" t="inlineStr">
+      <c r="C88" s="3" t="inlineStr">
         <is>
           <t>6월  학사일정&lt;br&gt; &lt;br&gt;
 2024년 후기 신입생(외국인) 입학전형: 5월 1일(수) ~ 7월 31일(월) &lt;br&gt; 
@@ -2861,22 +3143,22 @@
 2024학년도 하계 계절학기: 28일(금) ~ 7월 18일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E80" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" ht="25" customHeight="1">
-      <c r="A81" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="E88" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" ht="25" customHeight="1">
+      <c r="A89" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B89" s="25" t="inlineStr">
         <is>
           <t>7월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C81" s="3" t="inlineStr">
+      <c r="C89" s="3" t="inlineStr">
         <is>
           <t>7월  학사일정&lt;br&gt; &lt;br&gt;
 2024년 후기 신입생(외국인) 입학전형: 5월 1일(수) ~ 31일(월) &lt;br&gt;
@@ -2890,22 +3172,22 @@
 2024학년도 2학기 복학신청: 23일(화) ~ 8월 1일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E81" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="25" customHeight="1">
-      <c r="A82" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B82" s="3" t="inlineStr">
+      <c r="E89" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="25" customHeight="1">
+      <c r="A90" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B90" s="25" t="inlineStr">
         <is>
           <t>8월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C82" s="3" t="inlineStr">
+      <c r="C90" s="3" t="inlineStr">
         <is>
           <t>8월  학사일정&lt;br&gt; &lt;br&gt;
 2025학년도 신입생 재외국민 특별전형: 7월 1일(월) ~ 10월 31일(화) &lt;br&gt;
@@ -2920,22 +3202,22 @@
 2024학년도 2학기 등록 및 휴학신청: 23일(금) ~ 29일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E82" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" ht="25" customHeight="1">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="E90" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" ht="25" customHeight="1">
+      <c r="A91" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B91" s="25" t="inlineStr">
         <is>
           <t>9월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C83" s="3" t="inlineStr">
+      <c r="C91" s="3" t="inlineStr">
         <is>
           <t>9월  학사일정&lt;br&gt; &lt;br&gt;
 2025학년도 신입생 재외국민 특별전형: 7월 1일(월) ~ 10월 31일(화) &lt;br&gt; 
@@ -2948,22 +3230,22 @@
 추석연휴: 18일(수) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E83" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" ht="25" customHeight="1">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B84" s="3" t="inlineStr">
+      <c r="E91" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" ht="25" customHeight="1">
+      <c r="A92" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B92" s="25" t="inlineStr">
         <is>
           <t>10월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C84" s="3" t="inlineStr">
+      <c r="C92" s="3" t="inlineStr">
         <is>
           <t>10월  학사일정&lt;br&gt; &lt;br&gt;
 2025학년도 신입생 재외국민 특별전형: 7월 1일(월) ~ 31일(화) &lt;br&gt;
@@ -2974,22 +3256,22 @@
 2024학년도 2학기 사이버강좌 중간고사: 19일(토) ~ 20일(일) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E84" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" ht="25" customHeight="1">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="E92" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" ht="25" customHeight="1">
+      <c r="A93" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B93" s="25" t="inlineStr">
         <is>
           <t>11월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C85" s="3" t="inlineStr">
+      <c r="C93" s="3" t="inlineStr">
         <is>
           <t>11월  학사일정&lt;br&gt; &lt;br&gt;
 2025년 전기 신입생(외국인) 입학전형: 7월 1일(월) ~ 30일(금) &lt;br&gt;
@@ -2997,22 +3279,22 @@
 2025학년도 1학기 교내장학금 신청(기간 별도공지): 1일(금) ~  12월 31일(일) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E85" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" ht="25" customHeight="1">
-      <c r="A86" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B86" s="3" t="inlineStr">
+      <c r="E93" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" ht="25" customHeight="1">
+      <c r="A94" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B94" s="25" t="inlineStr">
         <is>
           <t>12월 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C86" s="3" t="inlineStr">
+      <c r="C94" s="3" t="inlineStr">
         <is>
           <t>12월  학사일정&lt;br&gt; &lt;br&gt;
 2025학년도 신입생 수시모집 입학전형: 9월 1일(일) ~ 31일(일) &lt;br&gt;
@@ -3028,1127 +3310,1127 @@
 2024학년도 동계 계절학기(예정): 27일(금) ~ 1월 17일(금) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E86" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" ht="25" customHeight="1">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="E94" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" ht="25" customHeight="1">
+      <c r="A95" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B95" s="25" t="inlineStr">
         <is>
           <t>오늘의 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C87" s="4" t="inlineStr">
+      <c r="C95" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D87" s="4" t="inlineStr">
+      <c r="D95" s="4" t="inlineStr">
         <is>
           <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
         </is>
       </c>
-      <c r="E87" s="6" t="n">
+      <c r="E95" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="88" ht="25" customHeight="1">
-      <c r="A88" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B88" s="3" t="inlineStr">
+    <row r="96" ht="25" customHeight="1">
+      <c r="A96" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B96" s="25" t="inlineStr">
         <is>
           <t>2024학년도 신입생 정시모집 입학전형</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
+      <c r="C96" s="3" t="inlineStr">
         <is>
           <t>2023년 12월 1일(금) ~ 2024년 2월 29일(목)</t>
         </is>
       </c>
-      <c r="E88" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" ht="25" customHeight="1">
-      <c r="A89" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="E96" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" ht="25" customHeight="1">
+      <c r="A97" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B97" s="25" t="inlineStr">
         <is>
           <t>2024학년도 편입생 입학전형</t>
         </is>
       </c>
-      <c r="C89" s="4" t="inlineStr">
+      <c r="C97" s="4" t="inlineStr">
         <is>
           <t>2023년 12월 1일(금) ~ 2024년 2월 29일(목)</t>
         </is>
       </c>
-      <c r="E89" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" ht="25" customHeight="1">
-      <c r="A90" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="E97" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" ht="25" customHeight="1">
+      <c r="A98" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B98" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 복학신청</t>
         </is>
       </c>
-      <c r="C90" s="3" t="inlineStr">
+      <c r="C98" s="3" t="inlineStr">
         <is>
           <t>1월 24일(수) ~ 2월 1일(목)</t>
         </is>
       </c>
-      <c r="E90" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" ht="25" customHeight="1">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="inlineStr">
+      <c r="E98" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" ht="25" customHeight="1">
+      <c r="A99" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B99" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 수강과목 사전선택</t>
         </is>
       </c>
-      <c r="C91" s="3" t="inlineStr">
+      <c r="C99" s="3" t="inlineStr">
         <is>
           <t>2월 2일(금) ~ 3일(토)</t>
         </is>
       </c>
-      <c r="E91" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" ht="25" customHeight="1">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B92" s="3" t="inlineStr">
+      <c r="E99" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" ht="25" customHeight="1">
+      <c r="A100" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B100" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 등록 및 휴학신청</t>
         </is>
       </c>
-      <c r="C92" s="3" t="inlineStr">
+      <c r="C100" s="3" t="inlineStr">
         <is>
           <t>2월 22일(목) ~ 28일(수)</t>
         </is>
       </c>
-      <c r="E92" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" ht="25" customHeight="1">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="E100" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" ht="25" customHeight="1">
+      <c r="A101" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B101" s="25" t="inlineStr">
         <is>
           <t>2023학년도 전기 학위수여식(제74회)</t>
         </is>
       </c>
-      <c r="C93" s="3" t="inlineStr">
+      <c r="C101" s="3" t="inlineStr">
         <is>
           <t>2월 22일(목)</t>
         </is>
       </c>
-      <c r="E93" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" ht="25" customHeight="1">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B94" s="3" t="inlineStr">
+      <c r="E101" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" ht="25" customHeight="1">
+      <c r="A102" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B102" s="25" t="inlineStr">
         <is>
           <t>2024학년도 신입생 입학식</t>
         </is>
       </c>
-      <c r="C94" s="3" t="inlineStr">
+      <c r="C102" s="3" t="inlineStr">
         <is>
           <t>2월 23일(금)</t>
         </is>
       </c>
-      <c r="E94" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" ht="25" customHeight="1">
-      <c r="A95" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="E102" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" ht="25" customHeight="1">
+      <c r="A103" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B103" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 수강신청</t>
         </is>
       </c>
-      <c r="C95" s="12" t="inlineStr">
+      <c r="C103" s="12" t="inlineStr">
         <is>
           <t>2월 23일(금) ~ 28일(수)</t>
         </is>
       </c>
-      <c r="E95" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" ht="25" customHeight="1">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="E103" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" ht="25" customHeight="1">
+      <c r="A104" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B104" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 개강</t>
         </is>
       </c>
-      <c r="C96" s="3" t="inlineStr">
+      <c r="C104" s="3" t="inlineStr">
         <is>
           <t>3월 4일(월)</t>
         </is>
       </c>
-      <c r="E96" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" ht="25" customHeight="1">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="E104" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" ht="25" customHeight="1">
+      <c r="A105" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B105" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 수강신청 정정</t>
         </is>
       </c>
-      <c r="C97" s="3" t="inlineStr">
+      <c r="C105" s="3" t="inlineStr">
         <is>
           <t>3월 4일(월) ~ 11일(월)</t>
         </is>
       </c>
-      <c r="E97" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" ht="25" customHeight="1">
-      <c r="A98" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B98" s="3" t="inlineStr">
+      <c r="E105" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" ht="25" customHeight="1">
+      <c r="A106" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B106" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 학기초과자(미졸자) 등록금 납부기간</t>
         </is>
       </c>
-      <c r="C98" s="3" t="inlineStr">
+      <c r="C106" s="3" t="inlineStr">
         <is>
           <t>3월 27일(수) ~ 29일(금)</t>
         </is>
       </c>
-      <c r="E98" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" ht="25" customHeight="1">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="E106" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" ht="25" customHeight="1">
+      <c r="A107" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B107" s="25" t="inlineStr">
         <is>
           <t>강의중간평가</t>
         </is>
       </c>
-      <c r="C99" s="3" t="inlineStr">
+      <c r="C107" s="3" t="inlineStr">
         <is>
           <t>3월 29일(금) ~ 4월 19일(금)</t>
         </is>
       </c>
-      <c r="E99" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" ht="25" customHeight="1">
-      <c r="A100" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B100" s="3" t="inlineStr">
+      <c r="E107" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" ht="25" customHeight="1">
+      <c r="A108" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B108" s="25" t="inlineStr">
         <is>
           <t>1학기 사이버강좌 중간고사</t>
         </is>
       </c>
-      <c r="C100" s="3" t="inlineStr">
+      <c r="C108" s="3" t="inlineStr">
         <is>
           <t>4월 20일(토) ~ 21일(일)</t>
         </is>
       </c>
-      <c r="E100" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" ht="25" customHeight="1">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B101" s="3" t="inlineStr">
+      <c r="E108" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" ht="25" customHeight="1">
+      <c r="A109" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B109" s="25" t="inlineStr">
         <is>
           <t>2024년 후기 신입생(외국인) 입학전형</t>
         </is>
       </c>
-      <c r="C101" s="3" t="inlineStr">
+      <c r="C109" s="3" t="inlineStr">
         <is>
           <t>5월 1일(수) ~ 7월 31일(월)</t>
         </is>
       </c>
-      <c r="E101" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" ht="25" customHeight="1">
-      <c r="A102" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B102" s="3" t="inlineStr">
+      <c r="E109" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" ht="25" customHeight="1">
+      <c r="A110" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B110" s="25" t="inlineStr">
         <is>
           <t>2학기 재입학신청</t>
         </is>
       </c>
-      <c r="C102" s="3" t="inlineStr">
+      <c r="C110" s="3" t="inlineStr">
         <is>
           <t>5월 2일(목) ~ 31일(금)</t>
         </is>
       </c>
-      <c r="E102" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" ht="25" customHeight="1">
-      <c r="A103" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="E110" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" ht="25" customHeight="1">
+      <c r="A111" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B111" s="25" t="inlineStr">
         <is>
           <t>학사학위취득유예 신청(2024년 8월 졸업대상자)</t>
         </is>
       </c>
-      <c r="C103" s="3" t="inlineStr">
+      <c r="C111" s="3" t="inlineStr">
         <is>
           <t>5월 13일(월) ~ 7월 19일(금)</t>
         </is>
       </c>
-      <c r="E103" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" ht="25" customHeight="1">
-      <c r="A104" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B104" s="3" t="inlineStr">
+      <c r="E111" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" ht="25" customHeight="1">
+      <c r="A112" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B112" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 교내장학금 신청</t>
         </is>
       </c>
-      <c r="C104" s="3" t="inlineStr">
+      <c r="C112" s="3" t="inlineStr">
         <is>
           <t>5월 21일(화) ~ 6월 20일(목) 18시</t>
         </is>
       </c>
-      <c r="E104" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" ht="25" customHeight="1">
-      <c r="A105" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="E112" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" ht="25" customHeight="1">
+      <c r="A113" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B113" s="25" t="inlineStr">
         <is>
           <t>2024학년도 하계 계절학기 수강신청</t>
         </is>
       </c>
-      <c r="C105" s="3" t="inlineStr">
+      <c r="C113" s="3" t="inlineStr">
         <is>
           <t>6월  11일(화) ~ 13일(목)</t>
         </is>
       </c>
-      <c r="E105" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" ht="25" customHeight="1">
-      <c r="A106" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B106" s="3" t="inlineStr">
+      <c r="E113" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" ht="25" customHeight="1">
+      <c r="A114" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B114" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 종강</t>
         </is>
       </c>
-      <c r="C106" s="3" t="inlineStr">
+      <c r="C114" s="3" t="inlineStr">
         <is>
           <t>6월 14일(금)</t>
         </is>
       </c>
-      <c r="E106" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" ht="25" customHeight="1">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B107" s="3" t="inlineStr">
+      <c r="E114" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" ht="25" customHeight="1">
+      <c r="A115" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B115" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 성적입력 및 정정(예정)</t>
         </is>
       </c>
-      <c r="C107" s="4" t="inlineStr">
+      <c r="C115" s="4" t="inlineStr">
         <is>
           <t>6월 14일(금) ~ 7월 4일(목)</t>
         </is>
       </c>
-      <c r="E107" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" ht="25" customHeight="1">
-      <c r="A108" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B108" s="3" t="inlineStr">
+      <c r="E115" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" ht="25" customHeight="1">
+      <c r="A116" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B116" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 사이버강좌 기말고사</t>
         </is>
       </c>
-      <c r="C108" s="3" t="inlineStr">
+      <c r="C116" s="3" t="inlineStr">
         <is>
           <t>6월 15일(토) ~ 16일(일)</t>
         </is>
       </c>
-      <c r="E108" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" ht="25" customHeight="1">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B109" s="3" t="inlineStr">
+      <c r="E116" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" ht="25" customHeight="1">
+      <c r="A117" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B117" s="25" t="inlineStr">
         <is>
           <t>2024학년도 1학기 공휴일로 인한 수업보강기간</t>
         </is>
       </c>
-      <c r="C109" s="3" t="inlineStr">
+      <c r="C117" s="3" t="inlineStr">
         <is>
           <t>6월 17일(월) ~ 21일(금)</t>
         </is>
       </c>
-      <c r="E109" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" ht="25" customHeight="1">
-      <c r="A110" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B110" s="3" t="inlineStr">
+      <c r="E117" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" ht="25" customHeight="1">
+      <c r="A118" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B118" s="25" t="inlineStr">
         <is>
           <t>2024학년도 하계 계절학기 수강신청(2차)</t>
         </is>
       </c>
-      <c r="C110" s="3" t="inlineStr">
+      <c r="C118" s="3" t="inlineStr">
         <is>
           <t>6월 18일(화)</t>
         </is>
       </c>
-      <c r="E110" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" ht="25" customHeight="1">
-      <c r="A111" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B111" s="3" t="inlineStr">
+      <c r="E118" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" ht="25" customHeight="1">
+      <c r="A119" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B119" s="25" t="inlineStr">
         <is>
           <t>개교기념일</t>
         </is>
       </c>
-      <c r="C111" s="3" t="inlineStr">
+      <c r="C119" s="3" t="inlineStr">
         <is>
           <t>6월 22일(토)</t>
         </is>
       </c>
-      <c r="E111" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" ht="25" customHeight="1">
-      <c r="A112" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B112" s="3" t="inlineStr">
+      <c r="E119" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" ht="25" customHeight="1">
+      <c r="A120" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B120" s="25" t="inlineStr">
         <is>
           <t>2024학년도 하계 계절학기</t>
         </is>
       </c>
-      <c r="C112" s="3" t="inlineStr">
+      <c r="C120" s="3" t="inlineStr">
         <is>
           <t>6월 28일(금) ~ 7월 18일(목)</t>
         </is>
       </c>
-      <c r="E112" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" ht="25" customHeight="1">
-      <c r="A113" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B113" s="3" t="inlineStr">
+      <c r="E120" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" ht="25" customHeight="1">
+      <c r="A121" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B121" s="25" t="inlineStr">
         <is>
           <t>2025학년도 신입생 재외국민 특별전형</t>
         </is>
       </c>
-      <c r="C113" s="3" t="inlineStr">
+      <c r="C121" s="3" t="inlineStr">
         <is>
           <t>7월 1일(월) ~ 10월 31일(화)</t>
         </is>
       </c>
-      <c r="E113" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" ht="25" customHeight="1">
-      <c r="A114" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B114" s="3" t="inlineStr">
+      <c r="E121" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" ht="25" customHeight="1">
+      <c r="A122" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B122" s="25" t="inlineStr">
         <is>
           <t>2025년 전기 신입생(외국인) 입학전형</t>
         </is>
       </c>
-      <c r="C114" s="4" t="inlineStr">
+      <c r="C122" s="4" t="inlineStr">
         <is>
           <t>7월 1일(월) ~ 11월 30일(금)</t>
         </is>
       </c>
-      <c r="E114" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" ht="25" customHeight="1">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B115" s="3" t="inlineStr">
+      <c r="E122" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" ht="25" customHeight="1">
+      <c r="A123" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B123" s="25" t="inlineStr">
         <is>
           <t>조기졸업 신청(2024년 8월 졸업대상자)</t>
         </is>
       </c>
-      <c r="C115" s="4" t="inlineStr">
+      <c r="C123" s="4" t="inlineStr">
         <is>
           <t>7월 5일(금) ~ 12일(금)</t>
         </is>
       </c>
-      <c r="E115" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" ht="25" customHeight="1">
-      <c r="A116" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B116" s="3" t="inlineStr">
+      <c r="E123" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" ht="25" customHeight="1">
+      <c r="A124" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B124" s="25" t="inlineStr">
         <is>
           <t>2024학년도 하계 계절학기 사이버강좌 기말고사</t>
         </is>
       </c>
-      <c r="C116" s="4" t="inlineStr">
+      <c r="C124" s="4" t="inlineStr">
         <is>
           <t>7월 13일(토)</t>
         </is>
       </c>
-      <c r="E116" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" ht="25" customHeight="1">
-      <c r="A117" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B117" s="3" t="inlineStr">
+      <c r="E124" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" ht="25" customHeight="1">
+      <c r="A125" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B125" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 복학신청</t>
         </is>
       </c>
-      <c r="C117" s="4" t="inlineStr">
+      <c r="C125" s="4" t="inlineStr">
         <is>
           <t>7월 23일(화) ~ 8월 1일(목)</t>
         </is>
       </c>
-      <c r="E117" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" ht="25" customHeight="1">
-      <c r="A118" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="E125" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" ht="25" customHeight="1">
+      <c r="A126" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B126" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 수강과목 사전선택(1차)</t>
         </is>
       </c>
-      <c r="C118" s="4" t="inlineStr">
+      <c r="C126" s="4" t="inlineStr">
         <is>
           <t>8월 5일(월) ~ 6일(화)</t>
         </is>
       </c>
-      <c r="E118" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" ht="25" customHeight="1">
-      <c r="A119" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B119" s="3" t="inlineStr">
+      <c r="E126" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" ht="25" customHeight="1">
+      <c r="A127" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B127" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 추가 복학신청 (최종)</t>
         </is>
       </c>
-      <c r="C119" s="4" t="inlineStr">
+      <c r="C127" s="4" t="inlineStr">
         <is>
           <t>8월 9일(금) ~ 15일(목)</t>
         </is>
       </c>
-      <c r="E119" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" ht="25" customHeight="1">
-      <c r="A120" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B120" s="3" t="inlineStr">
+      <c r="E127" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" ht="25" customHeight="1">
+      <c r="A128" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B128" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 수강과목 사전선택(2차)</t>
         </is>
       </c>
-      <c r="C120" s="4" t="inlineStr">
+      <c r="C128" s="4" t="inlineStr">
         <is>
           <t>8월 16일(금) ~ 22일(목)</t>
         </is>
       </c>
-      <c r="E120" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" ht="25" customHeight="1">
-      <c r="A121" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="E128" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" ht="25" customHeight="1">
+      <c r="A129" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B129" s="25" t="inlineStr">
         <is>
           <t>2023학년도 후기 학위수여식(제74회)</t>
         </is>
       </c>
-      <c r="C121" s="4" t="inlineStr">
+      <c r="C129" s="4" t="inlineStr">
         <is>
           <t>8월 22일(목)</t>
         </is>
       </c>
-      <c r="E121" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" ht="25" customHeight="1">
-      <c r="A122" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B122" s="3" t="inlineStr">
+      <c r="E129" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" ht="25" customHeight="1">
+      <c r="A130" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B130" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 수강신청</t>
         </is>
       </c>
-      <c r="C122" s="4" t="inlineStr">
+      <c r="C130" s="4" t="inlineStr">
         <is>
           <t>8월 23일(금) ~ 28일(수)</t>
         </is>
       </c>
-      <c r="E122" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" ht="25" customHeight="1">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B123" s="3" t="inlineStr">
+      <c r="E130" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" ht="25" customHeight="1">
+      <c r="A131" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B131" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 등록 및 휴학신청</t>
         </is>
       </c>
-      <c r="C123" s="4" t="inlineStr">
+      <c r="C131" s="4" t="inlineStr">
         <is>
           <t>8월 23일(금) ~ 29일(목)</t>
         </is>
       </c>
-      <c r="E123" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" ht="25" customHeight="1">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B124" s="3" t="inlineStr">
+      <c r="E131" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" ht="25" customHeight="1">
+      <c r="A132" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B132" s="25" t="inlineStr">
         <is>
           <t>2025학년도 신입생 수시모집 입학전형</t>
         </is>
       </c>
-      <c r="C124" s="4" t="inlineStr">
+      <c r="C132" s="4" t="inlineStr">
         <is>
           <t>9월 1일(일) ~ 12월 31일(일)</t>
         </is>
       </c>
-      <c r="E124" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" ht="25" customHeight="1">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B125" s="3" t="inlineStr">
+      <c r="E132" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" ht="25" customHeight="1">
+      <c r="A133" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B133" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 개강</t>
         </is>
       </c>
-      <c r="C125" s="4" t="inlineStr">
+      <c r="C133" s="4" t="inlineStr">
         <is>
           <t>9월 2일(월)</t>
         </is>
       </c>
-      <c r="E125" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" ht="25" customHeight="1">
-      <c r="A126" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B126" s="3" t="inlineStr">
+      <c r="E133" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" ht="25" customHeight="1">
+      <c r="A134" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B134" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 수강신청 정정(~9.9 17시까지)</t>
         </is>
       </c>
-      <c r="C126" s="4" t="inlineStr">
+      <c r="C134" s="4" t="inlineStr">
         <is>
           <t>9월 2일(월) ~ 9일(월)</t>
         </is>
       </c>
-      <c r="E126" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" ht="25" customHeight="1">
-      <c r="A127" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B127" s="3" t="inlineStr">
+      <c r="E134" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" ht="25" customHeight="1">
+      <c r="A135" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B135" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 사이버강좌 중간고사</t>
         </is>
       </c>
-      <c r="C127" s="4" t="inlineStr">
+      <c r="C135" s="4" t="inlineStr">
         <is>
           <t>10월 19일(토) ~ 20일(일)</t>
         </is>
       </c>
-      <c r="E127" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" ht="25" customHeight="1">
-      <c r="A128" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B128" s="3" t="inlineStr">
+      <c r="E135" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" ht="25" customHeight="1">
+      <c r="A136" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B136" s="25" t="inlineStr">
         <is>
           <t>2025학년도 1학기 교내장학금 신청(기간 별도공지)</t>
         </is>
       </c>
-      <c r="C128" s="4" t="inlineStr">
+      <c r="C136" s="4" t="inlineStr">
         <is>
           <t>11월 1일(금) ~ 12월 31일(일)</t>
         </is>
       </c>
-      <c r="E128" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" ht="25" customHeight="1">
-      <c r="A129" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B129" s="3" t="inlineStr">
+      <c r="E136" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" ht="25" customHeight="1">
+      <c r="A137" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B137" s="25" t="inlineStr">
         <is>
           <t>2025학년도 신입생 정시모집 입학전형</t>
         </is>
       </c>
-      <c r="C129" s="4" t="inlineStr">
+      <c r="C137" s="4" t="inlineStr">
         <is>
           <t>12월 1일(일) ~ 2월 28일(토)</t>
         </is>
       </c>
-      <c r="E129" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" ht="25" customHeight="1">
-      <c r="A130" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B130" s="3" t="inlineStr">
+      <c r="E137" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" ht="25" customHeight="1">
+      <c r="A138" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B138" s="25" t="inlineStr">
         <is>
           <t>2025학년도 편입생 입학전형</t>
         </is>
       </c>
-      <c r="C130" s="4" t="inlineStr">
+      <c r="C138" s="4" t="inlineStr">
         <is>
           <t>12월 1일(일) ~ 2월 28일(토)</t>
         </is>
       </c>
-      <c r="E130" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" ht="25" customHeight="1">
-      <c r="A131" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B131" s="3" t="inlineStr">
+      <c r="E138" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" ht="25" customHeight="1">
+      <c r="A139" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B139" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 종강</t>
         </is>
       </c>
-      <c r="C131" s="4" t="inlineStr">
+      <c r="C139" s="4" t="inlineStr">
         <is>
           <t>12월 14일(토) ~ 3일(금)</t>
         </is>
       </c>
-      <c r="E131" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" ht="25" customHeight="1">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B132" s="3" t="inlineStr">
+      <c r="E139" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" ht="25" customHeight="1">
+      <c r="A140" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B140" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 사이버강좌 기말고사</t>
         </is>
       </c>
-      <c r="C132" s="4" t="inlineStr">
+      <c r="C140" s="4" t="inlineStr">
         <is>
           <t>12월 14일(토) ~ 15일(일), 21(토)</t>
         </is>
       </c>
-      <c r="E132" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" ht="25" customHeight="1">
-      <c r="A133" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B133" s="3" t="inlineStr">
+      <c r="E140" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" ht="25" customHeight="1">
+      <c r="A141" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B141" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 성적입력 및 정정(예정)</t>
         </is>
       </c>
-      <c r="C133" s="4" t="inlineStr">
+      <c r="C141" s="4" t="inlineStr">
         <is>
           <t>12월 14일(토) ~ 1월 3일(금)</t>
         </is>
       </c>
-      <c r="E133" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" ht="25" customHeight="1">
-      <c r="A134" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B134" s="3" t="inlineStr">
+      <c r="E141" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" ht="25" customHeight="1">
+      <c r="A142" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B142" s="25" t="inlineStr">
         <is>
           <t>2024학년도 2학기 공휴일로 인한 수업보강기간</t>
         </is>
       </c>
-      <c r="C134" s="4" t="inlineStr">
+      <c r="C142" s="4" t="inlineStr">
         <is>
           <t>12월 16일(월) ~ 20일(금)</t>
         </is>
       </c>
-      <c r="E134" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" ht="25" customHeight="1">
-      <c r="A135" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B135" s="3" t="inlineStr">
+      <c r="E142" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" ht="25" customHeight="1">
+      <c r="A143" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B143" s="25" t="inlineStr">
         <is>
           <t>2024학년도 동계 계절학기(예정)</t>
         </is>
       </c>
-      <c r="C135" s="4" t="inlineStr">
+      <c r="C143" s="4" t="inlineStr">
         <is>
           <t>12월 27일(금) ~ 1월 17일(금)</t>
         </is>
       </c>
-      <c r="E135" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" ht="25" customHeight="1">
-      <c r="A136" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B136" s="3" t="inlineStr">
+      <c r="E143" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" ht="25" customHeight="1">
+      <c r="A144" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B144" s="25" t="inlineStr">
         <is>
           <t>2025학년도 1학기 복학신청(예정)</t>
         </is>
       </c>
-      <c r="C136" s="12" t="inlineStr">
+      <c r="C144" s="12" t="inlineStr">
         <is>
           <t>2025년 1월 24일(금) ~ 2월 2일(일)</t>
         </is>
       </c>
-      <c r="E136" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" ht="25" customHeight="1">
-      <c r="A137" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B137" s="3" t="inlineStr">
+      <c r="E144" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" ht="25" customHeight="1">
+      <c r="A145" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B145" s="25" t="inlineStr">
         <is>
           <t>2025학년도 1학기 수강과목 사전선택(예정)</t>
         </is>
       </c>
-      <c r="C137" s="12" t="inlineStr">
+      <c r="C145" s="12" t="inlineStr">
         <is>
           <t>2월 4일(화) ~ 5일(수)</t>
         </is>
       </c>
-      <c r="E137" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" ht="25" customHeight="1">
-      <c r="A138" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B138" s="3" t="inlineStr">
+      <c r="E145" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" ht="25" customHeight="1">
+      <c r="A146" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B146" s="25" t="inlineStr">
         <is>
           <t>2024학년도 전기 학위수여식(제75회)</t>
         </is>
       </c>
-      <c r="C138" s="12" t="inlineStr">
+      <c r="C146" s="12" t="inlineStr">
         <is>
           <t>2월 21일(금)</t>
         </is>
       </c>
-      <c r="E138" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" ht="25" customHeight="1">
-      <c r="A139" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B139" s="3" t="inlineStr">
+      <c r="E146" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" ht="25" customHeight="1">
+      <c r="A147" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B147" s="25" t="inlineStr">
         <is>
           <t>2025학년도 1학기 등록 및 휴학신청(예정)</t>
         </is>
       </c>
-      <c r="C139" s="12" t="inlineStr">
+      <c r="C147" s="12" t="inlineStr">
         <is>
           <t>2월 21일(금) ~ 27일(목)</t>
         </is>
       </c>
-      <c r="E139" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" ht="25" customHeight="1">
-      <c r="A140" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B140" s="3" t="inlineStr">
+      <c r="E147" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" ht="25" customHeight="1">
+      <c r="A148" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B148" s="25" t="inlineStr">
         <is>
           <t>2025학년도 신입생 입학식</t>
         </is>
       </c>
-      <c r="C140" s="12" t="inlineStr">
+      <c r="C148" s="12" t="inlineStr">
         <is>
           <t>2월 24일(월)</t>
         </is>
       </c>
-      <c r="E140" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" ht="25" customHeight="1">
-      <c r="A141" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B141" s="3" t="inlineStr">
+      <c r="E148" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" ht="25" customHeight="1">
+      <c r="A149" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B149" s="25" t="inlineStr">
         <is>
           <t>2025학년도 1학기 수강신청(예정)</t>
         </is>
       </c>
-      <c r="C141" s="12" t="inlineStr">
+      <c r="C149" s="12" t="inlineStr">
         <is>
           <t>2월 24일(월) ~ 27일(목)</t>
         </is>
       </c>
-      <c r="E141" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" ht="25" customHeight="1">
-      <c r="A142" s="3" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B142" s="3" t="inlineStr">
+      <c r="E149" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" ht="25" customHeight="1">
+      <c r="A150" s="25" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B150" s="25" t="inlineStr">
         <is>
           <t>수강신청 일정</t>
         </is>
       </c>
-      <c r="C142" s="3" t="inlineStr">
+      <c r="C150" s="3" t="inlineStr">
         <is>
           <t>"2024년 수강신청과 관련된 일정은 다음과 같습니다!
 2024학년도 1학기 수강과목 사전선택: 2월 2일(금) ~ 3일(토)
@@ -4162,214 +4444,238 @@
 2024학년도 2학기 수강신청 정정(~9.9 17시까지): 9월 2일(월) ~ 9일"</t>
         </is>
       </c>
-      <c r="E142" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" ht="25" customHeight="1">
-      <c r="A143" s="3" t="inlineStr">
+      <c r="E150" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" ht="25" customHeight="1">
+      <c r="A151" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B143" s="3" t="inlineStr">
-        <is>
-          <t>오늘, 지금 날씨에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C143" s="3" t="inlineStr">
+      <c r="B151" s="26" t="inlineStr">
+        <is>
+          <t>날씨 어때</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.68 &lt;br&gt;
+온도 : 11.98 &lt;br&gt;
 날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E143" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" ht="25" customHeight="1">
-      <c r="A144" s="3" t="inlineStr">
+      <c r="E151" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" ht="25" customHeight="1">
+      <c r="A152" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B144" s="3" t="inlineStr">
-        <is>
-          <t>오늘, 지금 학교 비 와?</t>
-        </is>
-      </c>
-      <c r="C144" s="3" t="inlineStr">
+      <c r="B152" s="26" t="inlineStr">
+        <is>
+          <t>오늘 날씨 어때</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.68 &lt;br&gt;
+온도 : 11.98 &lt;br&gt;
 날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E144" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" ht="25" customHeight="1">
-      <c r="A145" s="3" t="inlineStr">
+      <c r="E152" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" ht="25" customHeight="1">
+      <c r="A153" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B145" s="3" t="inlineStr">
-        <is>
-          <t>오늘, 지금 학교 맑아?</t>
-        </is>
-      </c>
-      <c r="C145" s="3" t="inlineStr">
+      <c r="B153" s="31" t="inlineStr">
+        <is>
+          <t>오늘 날씨 알려줘</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.68 &lt;br&gt;
+온도 : 11.98 &lt;br&gt;
 날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E145" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" ht="25" customHeight="1">
-      <c r="A146" s="3" t="inlineStr">
+      <c r="E153" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" ht="25" customHeight="1">
+      <c r="A154" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B146" s="3" t="inlineStr">
-        <is>
-          <t>오늘, 지금 학교 흐려?</t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="inlineStr">
+      <c r="B154" s="29" t="inlineStr">
+        <is>
+          <t>오늘 비 와?</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.68 &lt;br&gt;
+온도 : 11.98 &lt;br&gt;
 날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E146" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" ht="25" customHeight="1">
-      <c r="A147" s="3" t="inlineStr">
+      <c r="E154" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" ht="25" customHeight="1">
+      <c r="A155" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B147" s="3" t="inlineStr">
-        <is>
-          <t>오늘, 지금 학교 눈 와?</t>
-        </is>
-      </c>
-      <c r="C147" s="3" t="inlineStr">
+      <c r="B155" s="29" t="inlineStr">
+        <is>
+          <t>오늘 맑아?</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.68 &lt;br&gt;
+온도 : 11.98 &lt;br&gt;
 날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E147" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" ht="25" customHeight="1">
-      <c r="A148" s="3" t="inlineStr">
+      <c r="E155" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" ht="25" customHeight="1">
+      <c r="A156" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B148" s="3" t="inlineStr">
+      <c r="B156" s="29" t="inlineStr">
+        <is>
+          <t>오늘 흐려?</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.98 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E156" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" ht="25" customHeight="1">
+      <c r="A157" s="25" t="inlineStr">
+        <is>
+          <t>학교 날씨</t>
+        </is>
+      </c>
+      <c r="B157" s="29" t="inlineStr">
+        <is>
+          <t>오늘 눈 와?</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.98 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E157" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" ht="25" customHeight="1">
+      <c r="A158" s="25" t="inlineStr">
+        <is>
+          <t>학교 날씨</t>
+        </is>
+      </c>
+      <c r="B158" s="29" t="inlineStr">
         <is>
           <t>오늘 기온을 알려줘</t>
         </is>
       </c>
-      <c r="C148" s="3" t="inlineStr">
+      <c r="C158" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.68 &lt;br&gt;
+온도 : 11.98 &lt;br&gt;
 날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E148" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" ht="25" customHeight="1">
-      <c r="A149" s="3" t="inlineStr">
+      <c r="E158" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" ht="25" customHeight="1">
+      <c r="A159" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B149" s="3" t="inlineStr">
+      <c r="B159" s="29" t="inlineStr">
         <is>
           <t>오늘 날씨가 궁금해</t>
         </is>
       </c>
-      <c r="C149" s="3" t="inlineStr">
+      <c r="C159" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.68 &lt;br&gt;
+온도 : 11.98 &lt;br&gt;
 날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E149" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" ht="25" customHeight="1">
-      <c r="A150" s="3" t="inlineStr">
+      <c r="E159" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" ht="25" customHeight="1">
+      <c r="A160" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B150" s="3" t="inlineStr">
+      <c r="B160" s="25" t="inlineStr">
         <is>
           <t>오늘 날씨 몇 도야?</t>
         </is>
       </c>
-      <c r="C150" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.68 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E150" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" ht="25" customHeight="1">
-      <c r="A151" s="3" t="inlineStr">
-        <is>
-          <t>학교 날씨</t>
-        </is>
-      </c>
-      <c r="B151" s="3" t="inlineStr">
-        <is>
-          <t>내일 날씨에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C151" s="3" t="inlineStr">
+      <c r="C160" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 6.39 &lt;br&gt;
@@ -4378,22 +4684,22 @@
 </t>
         </is>
       </c>
-      <c r="E151" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" ht="25" customHeight="1">
-      <c r="A152" s="3" t="inlineStr">
+      <c r="E160" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" ht="25" customHeight="1">
+      <c r="A161" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B152" s="3" t="inlineStr">
-        <is>
-          <t>내일 학교 비 와?</t>
-        </is>
-      </c>
-      <c r="C152" s="3" t="inlineStr">
+      <c r="B161" s="29" t="inlineStr">
+        <is>
+          <t>내일 날씨 알려줘</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 6.39 &lt;br&gt;
@@ -4402,22 +4708,22 @@
 </t>
         </is>
       </c>
-      <c r="E152" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" ht="25" customHeight="1">
-      <c r="A153" s="3" t="inlineStr">
+      <c r="E161" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" ht="25" customHeight="1">
+      <c r="A162" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B153" s="3" t="inlineStr">
-        <is>
-          <t>내일 학교 맑아?</t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="inlineStr">
+      <c r="B162" s="29" t="inlineStr">
+        <is>
+          <t>내일 비 와?</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 6.39 &lt;br&gt;
@@ -4426,22 +4732,22 @@
 </t>
         </is>
       </c>
-      <c r="E153" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" ht="25" customHeight="1">
-      <c r="A154" s="3" t="inlineStr">
+      <c r="E162" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" ht="25" customHeight="1">
+      <c r="A163" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B154" s="3" t="inlineStr">
-        <is>
-          <t>내일 학교 흐려?</t>
-        </is>
-      </c>
-      <c r="C154" s="3" t="inlineStr">
+      <c r="B163" s="29" t="inlineStr">
+        <is>
+          <t>내일 맑아?</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 6.39 &lt;br&gt;
@@ -4450,22 +4756,22 @@
 </t>
         </is>
       </c>
-      <c r="E154" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" ht="25" customHeight="1">
-      <c r="A155" s="3" t="inlineStr">
+      <c r="E163" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" ht="25" customHeight="1">
+      <c r="A164" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B155" s="3" t="inlineStr">
-        <is>
-          <t>내일 학교 눈 와?</t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="inlineStr">
+      <c r="B164" s="29" t="inlineStr">
+        <is>
+          <t>내일 흐려?</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 6.39 &lt;br&gt;
@@ -4474,22 +4780,22 @@
 </t>
         </is>
       </c>
-      <c r="E155" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" ht="25" customHeight="1">
-      <c r="A156" s="3" t="inlineStr">
+      <c r="E164" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" ht="25" customHeight="1">
+      <c r="A165" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B156" s="3" t="inlineStr">
-        <is>
-          <t>내일 기온을 알려줘</t>
-        </is>
-      </c>
-      <c r="C156" s="3" t="inlineStr">
+      <c r="B165" s="29" t="inlineStr">
+        <is>
+          <t>내일 눈 와?</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 6.39 &lt;br&gt;
@@ -4498,22 +4804,22 @@
 </t>
         </is>
       </c>
-      <c r="E156" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" ht="25" customHeight="1">
-      <c r="A157" s="3" t="inlineStr">
+      <c r="E165" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" ht="25" customHeight="1">
+      <c r="A166" s="25" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B157" s="3" t="inlineStr">
-        <is>
-          <t>내일 기온은 어때?</t>
-        </is>
-      </c>
-      <c r="C157" s="3" t="inlineStr">
+      <c r="B166" s="25" t="inlineStr">
+        <is>
+          <t>내일 기온을 알려줘</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 6.39 &lt;br&gt;
@@ -4522,195 +4828,239 @@
 </t>
         </is>
       </c>
-      <c r="E157" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" ht="25" customHeight="1">
-      <c r="A158" s="14" t="inlineStr">
+      <c r="E166" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" ht="25" customHeight="1">
+      <c r="A167" s="25" t="inlineStr">
+        <is>
+          <t>학교 날씨</t>
+        </is>
+      </c>
+      <c r="B167" s="29" t="inlineStr">
+        <is>
+          <t>내일 기온은 어때?</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.39 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E167" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" ht="28" customHeight="1">
+      <c r="A168" s="32" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B158" s="15" t="inlineStr">
+      <c r="B168" s="33" t="inlineStr">
         <is>
           <t>홍대 기본 상식에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C158" s="14" t="inlineStr">
+      <c r="C168" s="14" t="inlineStr">
         <is>
           <t>홍익대학교에 대한 어떤 정보를 알려드릴까요?</t>
         </is>
       </c>
-      <c r="D158" s="14" t="inlineStr">
+      <c r="D168" s="14" t="inlineStr">
         <is>
           <t>마스코트, 총장님, 상징물, 교가, 교색, 연혁, 교육이념, 현재 현황</t>
         </is>
       </c>
-      <c r="E158" s="6" t="n">
+      <c r="E168" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="159" ht="38.5" customHeight="1">
-      <c r="A159" s="14" t="inlineStr">
+    <row r="169" ht="28" customHeight="1">
+      <c r="A169" s="32" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B159" s="15" t="inlineStr">
+      <c r="B169" s="33" t="inlineStr">
         <is>
           <t>학교에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C159" s="14" t="inlineStr">
+      <c r="C169" s="14" t="inlineStr">
         <is>
           <t>홍익대학교에 대한 어떤 정보를 알려드릴까요?</t>
         </is>
       </c>
-      <c r="D159" s="14" t="inlineStr">
+      <c r="D169" s="14" t="inlineStr">
         <is>
           <t>마스코트, 총장님, 상징물, 교가, 교색, 연혁, 교육이념, 현재 현황</t>
         </is>
       </c>
-      <c r="E159" s="6" t="n">
+      <c r="E169" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="160" ht="28" customHeight="1">
-      <c r="A160" s="3" t="inlineStr">
+    <row r="170" ht="28" customHeight="1">
+      <c r="A170" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B160" s="16" t="inlineStr">
-        <is>
-          <t>학교 마스코트는 누구야?</t>
-        </is>
-      </c>
-      <c r="C160" s="3" t="inlineStr">
+      <c r="B170" s="34" t="inlineStr">
+        <is>
+          <t>마스코트는 누구야?</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
         <is>
           <t>홍익대학교의 마스코트는 와우입니다. &lt;br&gt;
 피카소라고 불리는 황소도 있습니다. &gt;&lt;</t>
         </is>
       </c>
-      <c r="E160" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" ht="25" customHeight="1">
-      <c r="A161" s="3" t="inlineStr">
+      <c r="E170" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" ht="28" customHeight="1">
+      <c r="A171" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B161" s="16" t="inlineStr">
-        <is>
-          <t>학교 마스코트에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C161" s="3" t="inlineStr">
+      <c r="B171" s="34" t="inlineStr">
+        <is>
+          <t>마스코트에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
         <is>
           <t>홍익대학교의 마스코트는 와우입니다. &lt;br&gt;
 피카소라고 불리는 황소도 있습니다. &gt;&lt;</t>
         </is>
       </c>
-      <c r="E161" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" ht="25" customHeight="1">
-      <c r="A162" s="3" t="inlineStr">
+      <c r="E171" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" ht="28" customHeight="1">
+      <c r="A172" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B162" s="16" t="inlineStr">
+      <c r="B172" s="34" t="inlineStr">
         <is>
           <t>학교를 대표하는 캐릭터를 알려줘</t>
         </is>
       </c>
-      <c r="C162" s="3" t="inlineStr">
+      <c r="C172" s="3" t="inlineStr">
         <is>
           <t>홍익대학교의 마스코트는 와우입니다. &lt;br&gt;
 피카소라고 불리는 황소도 있습니다. &gt;&lt;</t>
         </is>
       </c>
-      <c r="E162" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" ht="25" customHeight="1">
-      <c r="A163" s="3" t="inlineStr">
+      <c r="E172" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" ht="28" customHeight="1">
+      <c r="A173" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B163" s="16" t="inlineStr">
-        <is>
-          <t>학교 총장님이 누구야?</t>
-        </is>
-      </c>
-      <c r="C163" s="3" t="inlineStr">
+      <c r="B173" s="34" t="inlineStr">
+        <is>
+          <t>총장님에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
         <is>
           <t>20대 총장님은 양현석 총장님입니다.</t>
         </is>
       </c>
-      <c r="E163" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" ht="25" customHeight="1">
-      <c r="A164" s="3" t="inlineStr">
+      <c r="E173" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" ht="28" customHeight="1">
+      <c r="A174" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B164" s="16" t="inlineStr">
+      <c r="B174" s="34" t="inlineStr">
+        <is>
+          <t>총장님이 누구야?</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>20대 총장님은 양현석 총장님입니다.</t>
+        </is>
+      </c>
+      <c r="E174" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" ht="28" customHeight="1">
+      <c r="A175" s="25" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B175" s="34" t="inlineStr">
         <is>
           <t>학교를 대표하는 상징물은 무엇이 있어?</t>
         </is>
       </c>
-      <c r="C164" s="4" t="inlineStr">
+      <c r="C175" s="4" t="inlineStr">
         <is>
           <t>홍익대학교에는 영원한 미소라는 멋진 상징물이 있어요. :)</t>
         </is>
       </c>
-      <c r="E164" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" ht="25" customHeight="1">
-      <c r="A165" s="3" t="inlineStr">
+      <c r="E175" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" ht="28" customHeight="1">
+      <c r="A176" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B165" s="16" t="inlineStr">
+      <c r="B176" s="34" t="inlineStr">
         <is>
           <t>영원한 미소에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C165" s="4" t="inlineStr">
+      <c r="C176" s="4" t="inlineStr">
         <is>
           <t>홍익대학교에는 영원한 미소라는 멋진 상징물이 있어요. :)</t>
         </is>
       </c>
-      <c r="E165" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" ht="25" customHeight="1">
-      <c r="A166" s="3" t="inlineStr">
+      <c r="E176" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" ht="28" customHeight="1">
+      <c r="A177" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B166" s="16" t="inlineStr">
-        <is>
-          <t>학교 교가에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C166" s="3" t="inlineStr">
+      <c r="B177" s="34" t="inlineStr">
+        <is>
+          <t>교가에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
         <is>
           <t>홍익대학교의 교가는 &lt;홍익학원가&gt;입니다. &lt;br&gt;
 아- 그 이름 길이 빛날 &lt;br&gt;
@@ -4720,22 +5070,22 @@
 &lt;a href="https://www.hongik.ac.kr/kr/introduction/song-hongik.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E166" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" ht="25" customHeight="1">
-      <c r="A167" s="3" t="inlineStr">
+      <c r="E177" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" ht="28" customHeight="1">
+      <c r="A178" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B167" s="16" t="inlineStr">
-        <is>
-          <t>학교 교가는 뭐야?</t>
-        </is>
-      </c>
-      <c r="C167" s="3" t="inlineStr">
+      <c r="B178" s="34" t="inlineStr">
+        <is>
+          <t>교가가 뭐야</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
         <is>
           <t>홍익대학교의 교가는 &lt;홍익학원가&gt;입니다. &lt;br&gt;
 아- 그 이름 길이 빛날 &lt;br&gt;
@@ -4745,146 +5095,277 @@
 &lt;a href="https://www.hongik.ac.kr/kr/introduction/song-hongik.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E167" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" ht="25" customHeight="1">
-      <c r="A168" s="3" t="inlineStr">
+      <c r="E178" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" ht="28" customHeight="1">
+      <c r="A179" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B168" s="16" t="inlineStr">
-        <is>
-          <t>우리학교의 교색이 뭐야</t>
-        </is>
-      </c>
-      <c r="C168" s="4" t="inlineStr">
+      <c r="B179" s="34" t="inlineStr">
+        <is>
+          <t>학교 교가에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
+        <is>
+          <t>홍익대학교의 교가는 &lt;홍익학원가&gt;입니다. &lt;br&gt;
+아- 그 이름 길이 빛날 &lt;br&gt;
+우리 홍익 길이 길이 빛날 &lt;br&gt;
+그 이름 그 이름 우리 홍익 그 이름 우리 홍익 &lt;br&gt; 
+&lt;br&gt;
+&lt;a href="https://www.hongik.ac.kr/kr/introduction/song-hongik.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="E179" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" ht="28" customHeight="1">
+      <c r="A180" s="25" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B180" s="34" t="inlineStr">
+        <is>
+          <t>교색에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C180" s="4" t="inlineStr">
         <is>
           <t>홍익대학교의 교색은 파란색입니다.</t>
         </is>
       </c>
-      <c r="E168" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" ht="25" customHeight="1">
-      <c r="A169" s="3" t="inlineStr">
+      <c r="E180" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" ht="28" customHeight="1">
+      <c r="A181" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B169" s="16" t="inlineStr">
-        <is>
-          <t>학교의 교색이 뭐야</t>
-        </is>
-      </c>
-      <c r="C169" s="4" t="inlineStr">
+      <c r="B181" s="34" t="inlineStr">
+        <is>
+          <t>교색이 뭐야</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
         <is>
           <t>홍익대학교의 교색은 파란색입니다.</t>
         </is>
       </c>
-      <c r="E169" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" ht="25" customHeight="1">
-      <c r="A170" s="3" t="inlineStr">
+      <c r="E181" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" ht="28" customHeight="1">
+      <c r="A182" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B170" s="16" t="inlineStr">
+      <c r="B182" s="34" t="inlineStr">
+        <is>
+          <t>학교 교색에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C182" s="4" t="inlineStr">
+        <is>
+          <t>홍익대학교의 교색은 파란색입니다.</t>
+        </is>
+      </c>
+      <c r="E182" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" ht="28" customHeight="1">
+      <c r="A183" s="25" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B183" s="34" t="inlineStr">
         <is>
           <t>학교 연혁에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C170" s="3" t="inlineStr">
+      <c r="C183" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">학교의 역사는 &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt; </t>
         </is>
       </c>
-      <c r="E170" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" ht="25" customHeight="1">
-      <c r="A171" s="3" t="inlineStr">
+      <c r="E183" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" ht="28" customHeight="1">
+      <c r="A184" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B171" s="16" t="inlineStr">
-        <is>
-          <t>학교 교육이념에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C171" s="3" t="inlineStr">
+      <c r="B184" s="34" t="inlineStr">
+        <is>
+          <t>연혁에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
         <is>
           <t>&lt;br&gt; 홍익대학교는 홍익인간과 산학일체의 이념으로 개인의 능력을 개발하고, 
 주체성과 자주성을 길러 국가사회 발전에 능동적으로 
 공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E171" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" ht="25" customHeight="1">
-      <c r="A172" s="3" t="inlineStr">
+      <c r="E184" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" ht="28" customHeight="1">
+      <c r="A185" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B172" s="16" t="inlineStr">
-        <is>
-          <t>학교 발전 목표를 알려줘</t>
-        </is>
-      </c>
-      <c r="C172" s="3" t="inlineStr">
+      <c r="B185" s="34" t="inlineStr">
+        <is>
+          <t>학교 교육이념에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
         <is>
           <t>&lt;br&gt; 홍익대학교는 홍익인간과 산학일체의 이념으로 개인의 능력을 개발하고, 
 주체성과 자주성을 길러 국가사회 발전에 능동적으로 
 공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E172" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" ht="25" customHeight="1">
-      <c r="A173" s="3" t="inlineStr">
+      <c r="E185" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" ht="28" customHeight="1">
+      <c r="A186" s="25" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B173" s="16" t="inlineStr">
+      <c r="B186" s="34" t="inlineStr">
+        <is>
+          <t>교육이념에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>&lt;br&gt; 홍익대학교는 홍익인간과 산학일체의 이념으로 개인의 능력을 개발하고, 
+주체성과 자주성을 길러 국가사회 발전에 능동적으로 
+공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="E186" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" ht="28" customHeight="1">
+      <c r="A187" s="25" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B187" s="34" t="inlineStr">
+        <is>
+          <t>학교 발전 목표를 알려줘</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>&lt;br&gt; 홍익대학교는 홍익인간과 산학일체의 이념으로 개인의 능력을 개발하고, 
+주체성과 자주성을 길러 국가사회 발전에 능동적으로 
+공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="E187" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" ht="28" customHeight="1">
+      <c r="A188" s="25" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B188" s="34" t="inlineStr">
+        <is>
+          <t>발전 목표를 알려줘</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>&lt;br&gt; 홍익대학교는 홍익인간과 산학일체의 이념으로 개인의 능력을 개발하고, 
+주체성과 자주성을 길러 국가사회 발전에 능동적으로 
+공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="E188" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" ht="28" customHeight="1">
+      <c r="A189" s="25" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B189" s="34" t="inlineStr">
         <is>
           <t>학교 현재 현황에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C173" s="3" t="inlineStr">
+      <c r="C189" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">학교의 역사는 &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt; </t>
         </is>
       </c>
-      <c r="E173" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" ht="25" customHeight="1">
-      <c r="A174" s="3" t="inlineStr">
+      <c r="E189" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" ht="28" customHeight="1">
+      <c r="A190" s="25" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B190" s="34" t="inlineStr">
+        <is>
+          <t>현재 현황에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">학교의 역사는 &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt; </t>
+        </is>
+      </c>
+      <c r="E190" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" ht="25" customHeight="1">
+      <c r="A191" s="3" t="inlineStr">
         <is>
           <t>졸업 요건</t>
         </is>
       </c>
-      <c r="B174" s="4" t="inlineStr">
+      <c r="B191" s="4" t="inlineStr">
         <is>
           <t>졸업요건을 알려줘</t>
         </is>
       </c>
-      <c r="C174" s="3" t="inlineStr">
+      <c r="C191" s="3" t="inlineStr">
         <is>
           <t>&lt;table border="1"&gt;
   &lt;tr&gt;
@@ -4949,22 +5430,22 @@
 자세한 내용은 클래스넷에서 확인하세요.</t>
         </is>
       </c>
-      <c r="E174" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" ht="25" customHeight="1">
-      <c r="A175" s="4" t="inlineStr">
+      <c r="E191" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" ht="25" customHeight="1">
+      <c r="A192" s="4" t="inlineStr">
         <is>
           <t>졸업 요건</t>
         </is>
       </c>
-      <c r="B175" s="4" t="inlineStr">
+      <c r="B192" s="4" t="inlineStr">
         <is>
           <t>졸업 학점을 알려줘</t>
         </is>
       </c>
-      <c r="C175" s="3" t="inlineStr">
+      <c r="C192" s="3" t="inlineStr">
         <is>
           <t>&lt;table border="1"&gt;
   &lt;tr&gt;
@@ -5029,22 +5510,22 @@
 자세한 내용은 클래스넷에서 확인하세요.</t>
         </is>
       </c>
-      <c r="E175" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" ht="25" customHeight="1">
-      <c r="A176" s="3" t="inlineStr">
+      <c r="E192" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" ht="25" customHeight="1">
+      <c r="A193" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B176" s="4" t="inlineStr">
+      <c r="B193" s="22" t="inlineStr">
         <is>
           <t>열람실 현황 알려줘</t>
         </is>
       </c>
-      <c r="C176" s="3" t="inlineStr">
+      <c r="C193" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5052,27 +5533,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D176" s="3" t="inlineStr">
+      <c r="D193" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E176" s="6" t="n">
+      <c r="E193" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="177" ht="25" customHeight="1">
-      <c r="A177" s="3" t="inlineStr">
+    <row r="194" ht="25" customHeight="1">
+      <c r="A194" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B177" s="4" t="inlineStr">
+      <c r="B194" s="22" t="inlineStr">
         <is>
           <t>지금 열람실에 자리가 있니?</t>
         </is>
       </c>
-      <c r="C177" s="3" t="inlineStr">
+      <c r="C194" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5080,27 +5561,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D177" s="3" t="inlineStr">
+      <c r="D194" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E177" s="6" t="n">
+      <c r="E194" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="178" ht="25" customHeight="1">
-      <c r="A178" s="3" t="inlineStr">
+    <row r="195" ht="25" customHeight="1">
+      <c r="A195" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B178" s="4" t="inlineStr">
+      <c r="B195" s="22" t="inlineStr">
         <is>
           <t>열람실 자리 현황을 알려줘</t>
         </is>
       </c>
-      <c r="C178" s="3" t="inlineStr">
+      <c r="C195" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5108,27 +5589,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D178" s="3" t="inlineStr">
+      <c r="D195" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E178" s="6" t="n">
+      <c r="E195" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="179" ht="25" customHeight="1">
-      <c r="A179" s="3" t="inlineStr">
+    <row r="196" ht="25" customHeight="1">
+      <c r="A196" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B179" s="4" t="inlineStr">
+      <c r="B196" s="22" t="inlineStr">
         <is>
           <t>T동 열람실 현황 알려줘</t>
         </is>
       </c>
-      <c r="C179" s="3" t="inlineStr">
+      <c r="C196" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5136,27 +5617,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D179" s="3" t="inlineStr">
+      <c r="D196" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E179" s="6" t="n">
+      <c r="E196" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="180" ht="25" customHeight="1">
-      <c r="A180" s="3" t="inlineStr">
+    <row r="197" ht="25" customHeight="1">
+      <c r="A197" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B180" s="4" t="inlineStr">
-        <is>
-          <t>법학 도서관(R동) 열람실 현황에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C180" s="3" t="inlineStr">
+      <c r="B197" s="22" t="inlineStr">
+        <is>
+          <t>R동 열람실 현황 알려줘</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5164,27 +5645,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D180" s="3" t="inlineStr">
+      <c r="D197" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E180" s="6" t="n">
+      <c r="E197" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="181" ht="25" customHeight="1">
-      <c r="A181" s="3" t="inlineStr">
+    <row r="198" ht="25" customHeight="1">
+      <c r="A198" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B181" s="4" t="inlineStr">
-        <is>
-          <t>중앙도서관(H동) 열람실 현황에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C181" s="3" t="inlineStr">
+      <c r="B198" s="23" t="inlineStr">
+        <is>
+          <t>법학 도서관(R동) 열람실 현황에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5192,47 +5673,103 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D181" s="3" t="inlineStr">
+      <c r="D198" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E181" s="6" t="n">
+      <c r="E198" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="182" ht="25" customHeight="1">
-      <c r="A182" s="3" t="inlineStr">
+    <row r="199" ht="25" customHeight="1">
+      <c r="A199" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B182" s="11" t="inlineStr">
+      <c r="B199" s="22" t="inlineStr">
+        <is>
+          <t>H동 열람실 현황 알려줘</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>&lt;운영시간&gt; &lt;br&gt;
+학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
+T동 : 06:00 ~ 23:00 (1개 열람실은 24시간 개방) &lt;br&gt;
+R동 : 06:00 ~ 23:01 &lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>학관 열람실, T동 열람실, R동 열람실</t>
+        </is>
+      </c>
+      <c r="E199" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" ht="25" customHeight="1">
+      <c r="A200" s="25" t="inlineStr">
+        <is>
+          <t>도서관, 열람실</t>
+        </is>
+      </c>
+      <c r="B200" s="22" t="inlineStr">
+        <is>
+          <t>중앙도서관(H동) 열람실 현황에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>&lt;운영시간&gt; &lt;br&gt;
+학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
+T동 : 06:00 ~ 23:00 (1개 열람실은 24시간 개방) &lt;br&gt;
+R동 : 06:00 ~ 23:02 &lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>학관 열람실, T동 열람실, R동 열람실</t>
+        </is>
+      </c>
+      <c r="E200" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" ht="25" customHeight="1">
+      <c r="A201" s="25" t="inlineStr">
+        <is>
+          <t>도서관, 열람실</t>
+        </is>
+      </c>
+      <c r="B201" s="11" t="inlineStr">
         <is>
           <t>학교 도서관에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C182" s="3" t="inlineStr">
+      <c r="C201" s="3" t="inlineStr">
         <is>
           <t>홍익대학교 서울 캠퍼스 내에는 H동에 중앙도서관, R동에 법학도서관이 있습니다!</t>
         </is>
       </c>
-      <c r="E182" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" ht="25" customHeight="1">
-      <c r="A183" s="3" t="inlineStr">
+      <c r="E201" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" ht="25" customHeight="1">
+      <c r="A202" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B183" s="11" t="inlineStr">
+      <c r="B202" s="11" t="inlineStr">
         <is>
           <t>중앙도서관에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C183" s="3" t="inlineStr">
+      <c r="C202" s="3" t="inlineStr">
         <is>
           <t>학생회관 뒷편 중앙도서관(H동) 1~6층, 정보통신센터(Q동) 4~9층&lt;br&gt;
 대표번호 02)320-1305&lt;br&gt;
@@ -5248,22 +5785,23 @@
 7층~8층: 정기간행물실 (출입게이트: 7층)&lt;br&gt;</t>
         </is>
       </c>
-      <c r="E183" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" ht="36.5" customHeight="1">
-      <c r="A184" s="3" t="inlineStr">
+      <c r="D202" s="3" t="n"/>
+      <c r="E202" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" ht="25" customHeight="1">
+      <c r="A203" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B184" s="11" t="inlineStr">
+      <c r="B203" s="11" t="inlineStr">
         <is>
           <t>법학도서관에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C184" s="3" t="inlineStr">
+      <c r="C203" s="3" t="inlineStr">
         <is>
           <t>홍익대학교 법학도서관은 법학 전문도서 및 특성화 자료실로 구성되어 있다. &lt;br&gt;
 약 7만여 권의 법학 관련 단행본, 정기간행물, 비도서자료 등을 소장하고 있으며, 법학 분야 전자자원과 Web DB 등을 구독하고 있다. &lt;br&gt;
@@ -5283,44 +5821,43 @@
 연중 무휴&lt;br&gt;</t>
         </is>
       </c>
-      <c r="E184" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" ht="118" customHeight="1">
-      <c r="A185" s="3" t="inlineStr">
+      <c r="E203" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" ht="25" customHeight="1">
+      <c r="A204" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B185" s="11" t="inlineStr">
+      <c r="B204" s="11" t="inlineStr">
         <is>
           <t>도서관 위치를 알려줘</t>
         </is>
       </c>
-      <c r="C185" s="3" t="inlineStr">
+      <c r="C204" s="3" t="inlineStr">
         <is>
           <t>중앙 도서관은 학생회관 뒷편 중앙도서관(H동) 1~6층, 정보통신센터(Q동) 4~9층에 위치해있고, &lt;br&gt;
 법학도서관은 홍문관(R동) 8층에 위치해 있습니다!&lt;br&gt;</t>
         </is>
       </c>
-      <c r="D185" s="3" t="n"/>
-      <c r="E185" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" ht="106" customHeight="1">
-      <c r="A186" s="3" t="inlineStr">
+      <c r="E204" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" ht="25" customHeight="1">
+      <c r="A205" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B186" s="3" t="inlineStr">
+      <c r="B205" s="25" t="inlineStr">
         <is>
           <t>열람실 위치를 알려줘</t>
         </is>
       </c>
-      <c r="C186" s="3" t="inlineStr">
+      <c r="C205" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5328,27 +5865,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D186" s="3" t="inlineStr">
+      <c r="D205" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E186" s="6" t="n">
+      <c r="E205" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="187" ht="78.5" customHeight="1">
-      <c r="A187" s="3" t="inlineStr">
+    <row r="206" ht="25" customHeight="1">
+      <c r="A206" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B187" s="3" t="inlineStr">
+      <c r="B206" s="25" t="inlineStr">
         <is>
           <t>열람실 운영시간을 알려줘</t>
         </is>
       </c>
-      <c r="C187" s="3" t="inlineStr">
+      <c r="C206" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5356,27 +5893,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D187" s="3" t="inlineStr">
+      <c r="D206" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E187" s="6" t="n">
+      <c r="E206" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="188" ht="60" customHeight="1">
-      <c r="A188" s="3" t="inlineStr">
+    <row r="207" ht="25" customHeight="1">
+      <c r="A207" s="25" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B188" s="3" t="inlineStr">
+      <c r="B207" s="25" t="inlineStr">
         <is>
           <t>열람실 개방시간을 알려줘</t>
         </is>
       </c>
-      <c r="C188" s="3" t="inlineStr">
+      <c r="C207" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5384,109 +5921,109 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D188" s="3" t="inlineStr">
+      <c r="D207" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E188" s="6" t="n">
+      <c r="E207" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="189" ht="92" customFormat="1" customHeight="1" s="8">
-      <c r="A189" s="14" t="inlineStr">
+    <row r="208" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A208" s="14" t="inlineStr">
         <is>
           <t>인사</t>
         </is>
       </c>
-      <c r="B189" s="17" t="inlineStr">
+      <c r="B208" s="15" t="inlineStr">
         <is>
           <t>안녕</t>
         </is>
       </c>
-      <c r="C189" s="18" t="inlineStr">
+      <c r="C208" s="16" t="inlineStr">
         <is>
           <t>안녕하세요! 반가워요</t>
         </is>
       </c>
-      <c r="D189" s="3" t="n"/>
-      <c r="E189" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A190" s="18" t="inlineStr">
+      <c r="D208" s="3" t="n"/>
+      <c r="E208" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A209" s="16" t="inlineStr">
         <is>
           <t>인사</t>
         </is>
       </c>
-      <c r="B190" s="19" t="inlineStr">
+      <c r="B209" s="17" t="inlineStr">
         <is>
           <t>안녕하세요</t>
         </is>
       </c>
-      <c r="C190" s="18" t="inlineStr">
+      <c r="C209" s="16" t="inlineStr">
         <is>
           <t>안녕하세요! 반가워요</t>
         </is>
       </c>
-      <c r="D190" s="3" t="n"/>
-      <c r="E190" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A191" s="18" t="inlineStr">
+      <c r="D209" s="3" t="n"/>
+      <c r="E209" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A210" s="16" t="inlineStr">
         <is>
           <t>인사</t>
         </is>
       </c>
-      <c r="B191" s="19" t="inlineStr">
+      <c r="B210" s="17" t="inlineStr">
         <is>
           <t>하이</t>
         </is>
       </c>
-      <c r="C191" s="18" t="inlineStr">
+      <c r="C210" s="16" t="inlineStr">
         <is>
           <t>안녕하세요! 반가워요</t>
         </is>
       </c>
-      <c r="E191" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" ht="28" customFormat="1" customHeight="1" s="8">
-      <c r="A192" s="18" t="inlineStr">
+      <c r="E210" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A211" s="16" t="inlineStr">
         <is>
           <t>인사</t>
         </is>
       </c>
-      <c r="B192" s="17" t="inlineStr">
+      <c r="B211" s="15" t="inlineStr">
         <is>
           <t>하이하이</t>
         </is>
       </c>
-      <c r="C192" s="18" t="inlineStr">
+      <c r="C211" s="16" t="inlineStr">
         <is>
           <t>안녕하세요! 반가워요</t>
         </is>
       </c>
-      <c r="E192" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A193" s="18" t="inlineStr">
+      <c r="E211" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A212" s="16" t="inlineStr">
         <is>
           <t>자기소개</t>
         </is>
       </c>
-      <c r="B193" s="19" t="inlineStr">
+      <c r="B212" s="17" t="inlineStr">
         <is>
           <t>너는 누구야?</t>
         </is>
       </c>
-      <c r="C193" s="21" t="inlineStr">
+      <c r="C212" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
@@ -5494,22 +6031,22 @@
 </t>
         </is>
       </c>
-      <c r="E193" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A194" s="18" t="inlineStr">
+      <c r="E212" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A213" s="16" t="inlineStr">
         <is>
           <t>자기소개</t>
         </is>
       </c>
-      <c r="B194" s="17" t="inlineStr">
+      <c r="B213" s="15" t="inlineStr">
         <is>
           <t>너가 누구야?</t>
         </is>
       </c>
-      <c r="C194" s="21" t="inlineStr">
+      <c r="C213" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
@@ -5517,22 +6054,22 @@
 </t>
         </is>
       </c>
-      <c r="E194" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" ht="80.5" customFormat="1" customHeight="1" s="8">
-      <c r="A195" s="18" t="inlineStr">
+      <c r="E213" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A214" s="16" t="inlineStr">
         <is>
           <t>자기소개</t>
         </is>
       </c>
-      <c r="B195" s="19" t="inlineStr">
+      <c r="B214" s="17" t="inlineStr">
         <is>
           <t>니 이름이 뭐야?</t>
         </is>
       </c>
-      <c r="C195" s="21" t="inlineStr">
+      <c r="C214" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
@@ -5540,22 +6077,22 @@
 </t>
         </is>
       </c>
-      <c r="E195" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A196" s="18" t="inlineStr">
+      <c r="E214" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" ht="25" customFormat="1" customHeight="1" s="8">
+      <c r="A215" s="16" t="inlineStr">
         <is>
           <t>자기소개</t>
         </is>
       </c>
-      <c r="B196" s="17" t="inlineStr">
+      <c r="B215" s="15" t="inlineStr">
         <is>
           <t>너에 대해 소개해줘</t>
         </is>
       </c>
-      <c r="C196" s="21" t="inlineStr">
+      <c r="C215" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
@@ -5563,12 +6100,12 @@
 </t>
         </is>
       </c>
-      <c r="E196" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" ht="59" customHeight="1"/>
-    <row r="198" ht="61.5" customHeight="1"/>
+      <c r="E215" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" ht="59" customHeight="1"/>
+    <row r="217" ht="61.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3040" yWindow="1000" windowWidth="20960" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="9">
     <font>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -46,9 +46,21 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Malgun Gothic"/>
       <family val="2"/>
       <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -58,54 +70,7 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="돋움체"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="129"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움체"/>
-      <charset val="129"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -120,17 +85,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6C6AD"/>
+        <fgColor rgb="FFf6c6ad"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4E5A2"/>
+        <fgColor rgb="FFb4e5a2"/>
       </patternFill>
     </fill>
   </fills>
@@ -151,16 +116,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -168,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -185,10 +150,22 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -197,80 +174,48 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -349,10 +294,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -390,71 +335,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,7 +427,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -505,11 +450,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -518,13 +463,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -534,7 +479,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -543,7 +488,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -552,7 +497,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -560,10 +505,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -633,19 +578,19 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24.5" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="53.5" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="47.5" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="44.5" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="12.5" bestFit="1" customWidth="1" style="21" min="5" max="5"/>
+    <col width="24.57642857142857" bestFit="1" customWidth="1" style="25" min="1" max="1"/>
+    <col width="53.57642857142857" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
+    <col width="47.57642857142857" bestFit="1" customWidth="1" style="25" min="3" max="3"/>
+    <col width="44.57642857142857" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="26" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
@@ -676,624 +621,641 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="22" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
       <c r="D2" s="4" t="n"/>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="5" t="n"/>
     </row>
     <row r="3" ht="25" customHeight="1">
-      <c r="A3" s="22" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B3" s="23" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>오늘 학식을 알려줘</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
-      <c r="A4" s="22" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B4" s="23" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>오늘 학식 알려줘</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="D4" s="25" t="n"/>
+      <c r="E4" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1">
-      <c r="A5" s="22" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B5" s="23" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>오늘 학식 뭐야</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="25" t="n"/>
+      <c r="E5" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
-      <c r="A6" s="22" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B6" s="23" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>오늘 학식 뭐나와</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="D6" s="25" t="n"/>
+      <c r="E6" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
-      <c r="A7" s="22" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B7" s="22" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>오늘 아침을 알려줘</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="D7" s="25" t="n"/>
+      <c r="E7" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
-      <c r="A8" s="22" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B8" s="22" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>오늘 점심을 알려줘</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="D8" s="25" t="n"/>
+      <c r="E8" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
-      <c r="A9" s="22" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B9" s="22" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>오늘 저녁을 알려줘</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="25" t="n"/>
+      <c r="E9" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
-      <c r="A10" s="22" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>오늘 학식 메뉴 뭐야</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="D10" s="25" t="n"/>
+      <c r="E10" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
-      <c r="A11" s="22" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B11" s="22" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>오늘 교내 식당 메뉴</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="D11" s="25" t="n"/>
+      <c r="E11" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
-      <c r="A12" s="22" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B12" s="22" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>교내 식당 메뉴 알려줘</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="D12" s="25" t="n"/>
+      <c r="E12" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
-      <c r="A13" s="22" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B13" s="22" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>교직원 식당 메뉴 알려줘</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="D13" s="25" t="n"/>
+      <c r="E13" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
-      <c r="A14" s="22" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B14" s="24" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>오늘 조식(아침) 뭐야</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="D14" s="25" t="n"/>
+      <c r="E14" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
-      <c r="A15" s="22" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B15" s="23" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>조식 알려줘</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="D15" s="25" t="n"/>
+      <c r="E15" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
-      <c r="A16" s="22" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B16" s="24" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>오늘 중식(점심) 뭐야</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="D16" s="25" t="n"/>
+      <c r="E16" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
-      <c r="A17" s="22" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B17" s="22" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>중식 알려줘</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="D17" s="25" t="n"/>
+      <c r="E17" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
-      <c r="A18" s="22" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B18" s="24" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>오늘 석식(저녁) 뭐야</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 "
 </t>
         </is>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="D18" s="25" t="n"/>
+      <c r="E18" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="25" customHeight="1">
-      <c r="A19" s="22" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B19" s="22" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>석식 알려줘</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 "
 </t>
         </is>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="D19" s="25" t="n"/>
+      <c r="E19" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1">
-      <c r="A20" s="22" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B20" s="22" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>오늘 식사 메뉴</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 "
 </t>
         </is>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="D20" s="25" t="n"/>
+      <c r="E20" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
-      <c r="A21" s="22" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>학식</t>
         </is>
       </c>
-      <c r="B21" s="23" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>오늘 식사 메뉴 뭐야</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 25일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 26일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수  &lt;br&gt;
-점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치  &lt;br&gt;
+아침 : 계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차  &lt;br&gt;
+점심 : 사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치  &lt;br&gt;
+저녁 : 돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일  &lt;br&gt;
-저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료  &lt;br&gt;
+점심 : 나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료  &lt;br&gt;
 "
 </t>
         </is>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="D21" s="25" t="n"/>
+      <c r="E21" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
-      <c r="A22" s="22" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B22" s="24" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>연락처 검색</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>"연락처 검색"</t>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>아래 버튼 중 하나를 클릭해주세요.</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -1301,24 +1263,24 @@
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
-      <c r="A23" s="22" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B23" s="23" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>교내 연락처 검색</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>"연락처 검색"</t>
+      <c r="C23" s="9" t="inlineStr">
+        <is>
+          <t>아래 버튼 중 하나를 클릭해주세요.</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
@@ -1326,25 +1288,24 @@
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
-      <c r="A24" s="22" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B24" s="23" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>컴퓨터공학과 번호 검색</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">컴퓨터공학과 과사무실 연락처입니다.
-02 - </t>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>아래 버튼 중 하나를 클릭해주세요.</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -1352,291 +1313,239 @@
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
-      <c r="A25" s="22" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B25" s="23" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>교수님 번호 검색</t>
         </is>
       </c>
+      <c r="C25" s="9" t="inlineStr">
+        <is>
+          <t>아래 버튼 중 하나를 클릭해주세요.</t>
+        </is>
+      </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
-      <c r="A26" s="22" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B26" s="23" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>교수님 연락처 검색</t>
         </is>
       </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>아래 버튼 중 하나를 클릭해주세요.</t>
+        </is>
+      </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
-      <c r="A27" s="22" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B27" s="24" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>사무실 연락처 검색</t>
         </is>
       </c>
+      <c r="C27" s="9" t="inlineStr">
+        <is>
+          <t>아래 버튼 중 하나를 클릭해주세요.</t>
+        </is>
+      </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
-      <c r="A28" s="22" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B28" s="23" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>사무실 번호 검색</t>
         </is>
       </c>
+      <c r="C28" s="9" t="inlineStr">
+        <is>
+          <t>아래 버튼 중 하나를 클릭해주세요.</t>
+        </is>
+      </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="29" ht="25" customHeight="1">
-      <c r="A29" s="22" t="inlineStr">
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
         </is>
       </c>
-      <c r="B29" s="23" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>전화번호 검색</t>
         </is>
       </c>
+      <c r="C29" s="9" t="inlineStr">
+        <is>
+          <t>아래 버튼 중 하나를 클릭해주세요.</t>
+        </is>
+      </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="30" ht="25" customHeight="1">
+    <row r="30" ht="73.5" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="B30" s="7" t="inlineStr">
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
-제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-작성자 : 한여은
-제목 : 2024-2학기 노트북 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
-작성일자 : 2024.08.22
-작성자 : 조현영
-제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
-작성일자 : 2024.08.21
-작성자 : 조현영
-제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
-작성일자 : 2024.08.21
-작성자 : 한여은
-제목 : 2024-2학기 태블릿 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
-작성일자 : 2024.08.20
-작성자 : 컴퓨터공학과
-제목 : 24-2 졸업프로젝트1 분반배정결과 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
-작성일자 : 2024.08.19
-</t>
+          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
+제목(링크) | 게시날짜 &lt;br&gt;
+&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127604&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[안내] 2024 제3회 TANGO Community Conference 사전 등록 모집 자세히 보기 &lt;/a&gt; | 2024.11.26&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127598&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;2025년 2월 조기졸업 신청서 제출 안내 자세히 보기 &lt;/a&gt; | 2024.11.26&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127469&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 24-2 기말고사 일정 안내 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127462&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;2024학년도 2학기 졸업프로젝트 전시회 일정 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127453&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[장학] 2024-2학기 교내 신용카드수수료장학금 신청 안내 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127433&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 2024학년도 2학기 학생 포상 대상자 추천 안내 자세히 보기 &lt;/a&gt; | 2024.11.20&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127426&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 2025학년도 1학기 교내장학금 신청 안내 자세히 보기 &lt;/a&gt; | 2024.11.20&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=125164&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;국가기술자격 출제기준 개정사항 안내 및 ICT자격 안내 자세히 보기 &lt;/a&gt; | 2024.11.11&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
       <c r="D30" s="4" t="n"/>
-      <c r="E30" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="25" customHeight="1">
+      <c r="E30" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="73.5" customHeight="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>학교 공지사항을 보고싶어</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
-제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-작성자 : 한여은
-제목 : 2024-2학기 노트북 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
-작성일자 : 2024.08.22
-작성자 : 조현영
-제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
-작성일자 : 2024.08.21
-작성자 : 조현영
-제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
-작성일자 : 2024.08.21
-작성자 : 한여은
-제목 : 2024-2학기 태블릿 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
-작성일자 : 2024.08.20
-작성자 : 컴퓨터공학과
-제목 : 24-2 졸업프로젝트1 분반배정결과 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
-작성일자 : 2024.08.19
-</t>
-        </is>
-      </c>
-      <c r="E31" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="25" customHeight="1">
+          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
+제목(링크) | 게시날짜 &lt;br&gt;
+&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127604&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[안내] 2024 제3회 TANGO Community Conference 사전 등록 모집 자세히 보기 &lt;/a&gt; | 2024.11.26&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127598&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;2025년 2월 조기졸업 신청서 제출 안내 자세히 보기 &lt;/a&gt; | 2024.11.26&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127469&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 24-2 기말고사 일정 안내 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127462&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;2024학년도 2학기 졸업프로젝트 전시회 일정 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127453&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[장학] 2024-2학기 교내 신용카드수수료장학금 신청 안내 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127433&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 2024학년도 2학기 학생 포상 대상자 추천 안내 자세히 보기 &lt;/a&gt; | 2024.11.20&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127426&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 2025학년도 1학기 교내장학금 신청 안내 자세히 보기 &lt;/a&gt; | 2024.11.20&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=125164&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;국가기술자격 출제기준 개정사항 안내 및 ICT자격 안내 자세히 보기 &lt;/a&gt; | 2024.11.11&lt;br&gt;&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="D31" s="25" t="n"/>
+      <c r="E31" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="73.5" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="6" t="inlineStr">
         <is>
           <t>새로 올라온 공지사항을 보고싶어</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
-제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-작성자 : 한여은
-제목 : 2024-2학기 노트북 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
-작성일자 : 2024.08.22
-작성자 : 조현영
-제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
-작성일자 : 2024.08.21
-작성자 : 조현영
-제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
-작성일자 : 2024.08.21
-작성자 : 한여은
-제목 : 2024-2학기 태블릿 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
-작성일자 : 2024.08.20
-작성자 : 컴퓨터공학과
-제목 : 24-2 졸업프로젝트1 분반배정결과 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
-작성일자 : 2024.08.19
-</t>
-        </is>
-      </c>
-      <c r="E32" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="25" customHeight="1">
+          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
+제목(링크) | 게시날짜 &lt;br&gt;
+&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127604&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[안내] 2024 제3회 TANGO Community Conference 사전 등록 모집 자세히 보기 &lt;/a&gt; | 2024.11.26&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127598&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;2025년 2월 조기졸업 신청서 제출 안내 자세히 보기 &lt;/a&gt; | 2024.11.26&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127469&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 24-2 기말고사 일정 안내 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127462&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;2024학년도 2학기 졸업프로젝트 전시회 일정 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127453&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[장학] 2024-2학기 교내 신용카드수수료장학금 신청 안내 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127433&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 2024학년도 2학기 학생 포상 대상자 추천 안내 자세히 보기 &lt;/a&gt; | 2024.11.20&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127426&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 2025학년도 1학기 교내장학금 신청 안내 자세히 보기 &lt;/a&gt; | 2024.11.20&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=125164&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;국가기술자격 출제기준 개정사항 안내 및 ICT자격 안내 자세히 보기 &lt;/a&gt; | 2024.11.11&lt;br&gt;&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="D32" s="25" t="n"/>
+      <c r="E32" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="73.5" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>공지사항 새로 올라온 게 있어?</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
-제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-작성자 : 한여은
-제목 : 2024-2학기 노트북 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
-작성일자 : 2024.08.22
-작성자 : 조현영
-제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
-작성일자 : 2024.08.21
-작성자 : 조현영
-제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
-작성일자 : 2024.08.21
-작성자 : 한여은
-제목 : 2024-2학기 태블릿 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
-작성일자 : 2024.08.20
-작성자 : 컴퓨터공학과
-제목 : 24-2 졸업프로젝트1 분반배정결과 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
-작성일자 : 2024.08.19
-</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="n">
+          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
+제목(링크) | 게시날짜 &lt;br&gt;
+&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127604&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[안내] 2024 제3회 TANGO Community Conference 사전 등록 모집 자세히 보기 &lt;/a&gt; | 2024.11.26&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127598&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;2025년 2월 조기졸업 신청서 제출 안내 자세히 보기 &lt;/a&gt; | 2024.11.26&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127469&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 24-2 기말고사 일정 안내 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127462&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;2024학년도 2학기 졸업프로젝트 전시회 일정 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127453&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[장학] 2024-2학기 교내 신용카드수수료장학금 신청 안내 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127433&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 2024학년도 2학기 학생 포상 대상자 추천 안내 자세히 보기 &lt;/a&gt; | 2024.11.20&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127426&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 2025학년도 1학기 교내장학금 신청 안내 자세히 보기 &lt;/a&gt; | 2024.11.20&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=125164&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;국가기술자격 출제기준 개정사항 안내 및 ICT자격 안내 자세히 보기 &lt;/a&gt; | 2024.11.11&lt;br&gt;&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="D33" s="25" t="n"/>
+      <c r="E33" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
-      <c r="A34" s="25" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B34" s="26" t="inlineStr">
+      <c r="B34" s="10" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="C34" s="25" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>학교 내 편의시설 목록은 다음과 같습니다. &lt;br&gt;
 &lt;학교 편의시설 목록&gt; &lt;br&gt;
@@ -1656,18 +1565,18 @@
 기숙사 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D34" s="27" t="n"/>
-      <c r="E34" s="28" t="n">
+      <c r="D34" s="11" t="n"/>
+      <c r="E34" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
-      <c r="A35" s="25" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B35" s="25" t="inlineStr">
+      <c r="B35" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 편의시설에 대한 정보를 알려줘</t>
         </is>
@@ -1692,17 +1601,18 @@
 기숙사 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="D35" s="25" t="n"/>
+      <c r="E35" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="25" customHeight="1">
-      <c r="A36" s="25" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B36" s="25" t="inlineStr">
+      <c r="B36" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 카페에 대한 정보를 알려줘</t>
         </is>
@@ -1721,17 +1631,18 @@
 카페 나무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E36" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A37" s="25" t="inlineStr">
+      <c r="D36" s="25" t="n"/>
+      <c r="E36" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B37" s="25" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 베이커리에 대한 정보를 알려줘</t>
         </is>
@@ -1751,17 +1662,17 @@
         </is>
       </c>
       <c r="D37" s="3" t="n"/>
-      <c r="E37" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A38" s="25" t="inlineStr">
+      <c r="E37" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B38" s="25" t="inlineStr">
+      <c r="B38" s="10" t="inlineStr">
         <is>
           <t>카페드림에 대한 정보를 알려줘</t>
         </is>
@@ -1781,17 +1692,17 @@
         </is>
       </c>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A39" s="25" t="inlineStr">
+      <c r="E38" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B39" s="25" t="inlineStr">
+      <c r="B39" s="10" t="inlineStr">
         <is>
           <t>카페 캠퍼에 대한 정보를 알려줘</t>
         </is>
@@ -1806,17 +1717,17 @@
         </is>
       </c>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A40" s="25" t="inlineStr">
+      <c r="E39" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B40" s="25" t="inlineStr">
+      <c r="B40" s="10" t="inlineStr">
         <is>
           <t>북카페 카페아이엔지에 대한 정보를 알려줘</t>
         </is>
@@ -1831,17 +1742,17 @@
         </is>
       </c>
       <c r="D40" s="3" t="n"/>
-      <c r="E40" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A41" s="25" t="inlineStr">
+      <c r="E40" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B41" s="25" t="inlineStr">
+      <c r="B41" s="10" t="inlineStr">
         <is>
           <t>카페, 빵집 파브리카에 대한 정보를 알려줘</t>
         </is>
@@ -1856,17 +1767,17 @@
         </is>
       </c>
       <c r="D41" s="3" t="n"/>
-      <c r="E41" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A42" s="25" t="inlineStr">
+      <c r="E41" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B42" s="25" t="inlineStr">
+      <c r="B42" s="10" t="inlineStr">
         <is>
           <t>카페 그라찌에에 대한 정보를 알려줘</t>
         </is>
@@ -1882,17 +1793,17 @@
         </is>
       </c>
       <c r="D42" s="3" t="n"/>
-      <c r="E42" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A43" s="25" t="inlineStr">
+      <c r="E42" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B43" s="25" t="inlineStr">
+      <c r="B43" s="10" t="inlineStr">
         <is>
           <t>과일카페 푸르타에 대한 정보를 알려줘</t>
         </is>
@@ -1907,17 +1818,17 @@
         </is>
       </c>
       <c r="D43" s="3" t="n"/>
-      <c r="E43" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A44" s="25" t="inlineStr">
+      <c r="E43" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B44" s="25" t="inlineStr">
+      <c r="B44" s="10" t="inlineStr">
         <is>
           <t>카페나무에 대한 정보를 알려줘</t>
         </is>
@@ -1946,17 +1857,17 @@
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
-      <c r="E44" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A45" s="25" t="inlineStr">
+      <c r="E44" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B45" s="25" t="inlineStr">
+      <c r="B45" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 편의점에 대해 알려줘</t>
         </is>
@@ -1971,17 +1882,17 @@
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
-      <c r="E45" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A46" s="25" t="inlineStr">
+      <c r="E45" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B46" s="25" t="inlineStr">
+      <c r="B46" s="10" t="inlineStr">
         <is>
           <t>편의점 이마트24에 대해 알려줘</t>
         </is>
@@ -1997,17 +1908,17 @@
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
-      <c r="E46" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A47" s="25" t="inlineStr">
+      <c r="E46" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B47" s="25" t="inlineStr">
+      <c r="B47" s="10" t="inlineStr">
         <is>
           <t>편의점 바이스마트에 대해 알려줘</t>
         </is>
@@ -2026,17 +1937,17 @@
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
-      <c r="E47" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A48" s="25" t="inlineStr">
+      <c r="E47" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B48" s="25" t="inlineStr">
+      <c r="B48" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 서점에 대해 알려줘</t>
         </is>
@@ -2053,22 +1964,22 @@
         </is>
       </c>
       <c r="D48" s="3" t="n"/>
-      <c r="E48" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A49" s="25" t="inlineStr">
+      <c r="E48" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B49" s="25" t="inlineStr">
+      <c r="B49" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 문구점에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C49" s="10" t="inlineStr">
+      <c r="C49" s="14" t="inlineStr">
         <is>
           <t>편의시설: 문구/화방(한가람문구) &lt;br&gt;
 취급품목 :
@@ -2079,22 +1990,22 @@
         </is>
       </c>
       <c r="D49" s="3" t="n"/>
-      <c r="E49" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A50" s="25" t="inlineStr">
+      <c r="E49" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B50" s="25" t="inlineStr">
+      <c r="B50" s="10" t="inlineStr">
         <is>
           <t>화방 한가람문구에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C50" s="10" t="inlineStr">
+      <c r="C50" s="14" t="inlineStr">
         <is>
           <t>편의시설: 문구/화방(한가람문구) &lt;br&gt;
 취급품목 :
@@ -2105,17 +2016,17 @@
         </is>
       </c>
       <c r="D50" s="3" t="n"/>
-      <c r="E50" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A51" s="25" t="inlineStr">
+      <c r="E50" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B51" s="25" t="inlineStr">
+      <c r="B51" s="10" t="inlineStr">
         <is>
           <t>대학서적을 판매하는 곳에 대해 알려줘</t>
         </is>
@@ -2132,17 +2043,17 @@
         </is>
       </c>
       <c r="D51" s="3" t="n"/>
-      <c r="E51" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A52" s="25" t="inlineStr">
+      <c r="E51" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B52" s="26" t="inlineStr">
+      <c r="B52" s="10" t="inlineStr">
         <is>
           <t>주차장</t>
         </is>
@@ -2157,17 +2068,17 @@
         </is>
       </c>
       <c r="D52" s="3" t="n"/>
-      <c r="E52" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A53" s="25" t="inlineStr">
+      <c r="E52" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B53" s="25" t="inlineStr">
+      <c r="B53" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 주차창에 대해 알려줘</t>
         </is>
@@ -2181,17 +2092,17 @@
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
-      <c r="E53" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A54" s="25" t="inlineStr">
+      <c r="E53" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B54" s="25" t="inlineStr">
+      <c r="B54" s="10" t="inlineStr">
         <is>
           <t>컴퓨터전자매장 비전플러스에 대해 알려줘</t>
         </is>
@@ -2206,17 +2117,17 @@
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
-      <c r="E54" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A55" s="25" t="inlineStr">
+      <c r="E54" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B55" s="25" t="inlineStr">
+      <c r="B55" s="10" t="inlineStr">
         <is>
           <t>여행사 마실에 대해 알려줘</t>
         </is>
@@ -2233,17 +2144,17 @@
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
-      <c r="E55" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A56" s="25" t="inlineStr">
+      <c r="E55" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B56" s="25" t="inlineStr">
+      <c r="B56" s="10" t="inlineStr">
         <is>
           <t>신한은행에 대해 알려줘</t>
         </is>
@@ -2258,17 +2169,17 @@
         </is>
       </c>
       <c r="D56" s="3" t="n"/>
-      <c r="E56" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A57" s="25" t="inlineStr">
+      <c r="E56" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B57" s="25" t="inlineStr">
+      <c r="B57" s="10" t="inlineStr">
         <is>
           <t>중식당 향차이에 대해 알려줘</t>
         </is>
@@ -2283,17 +2194,17 @@
         </is>
       </c>
       <c r="D57" s="3" t="n"/>
-      <c r="E57" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A58" s="25" t="inlineStr">
+      <c r="E57" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B58" s="25" t="inlineStr">
+      <c r="B58" s="10" t="inlineStr">
         <is>
           <t>출력센터 에이제이네트웍스에 대해 알려줘</t>
         </is>
@@ -2316,17 +2227,17 @@
         </is>
       </c>
       <c r="D58" s="3" t="n"/>
-      <c r="E58" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A59" s="25" t="inlineStr">
+      <c r="E58" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B59" s="25" t="inlineStr">
+      <c r="B59" s="10" t="inlineStr">
         <is>
           <t>뷔페식당 마루샤브에 대해 알려줘</t>
         </is>
@@ -2340,17 +2251,17 @@
         </is>
       </c>
       <c r="D59" s="3" t="n"/>
-      <c r="E59" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A60" s="25" t="inlineStr">
+      <c r="E59" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B60" s="25" t="inlineStr">
+      <c r="B60" s="10" t="inlineStr">
         <is>
           <t>사진관 스튜디오홍대에 대해 알려줘</t>
         </is>
@@ -2368,17 +2279,17 @@
         </is>
       </c>
       <c r="D60" s="3" t="n"/>
-      <c r="E60" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A61" s="25" t="inlineStr">
+      <c r="E60" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B61" s="25" t="inlineStr">
+      <c r="B61" s="10" t="inlineStr">
         <is>
           <t>꽃집 세란꽃방에 대해 알려줘</t>
         </is>
@@ -2394,17 +2305,17 @@
         </is>
       </c>
       <c r="D61" s="3" t="n"/>
-      <c r="E61" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A62" s="25" t="inlineStr">
+      <c r="E61" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B62" s="29" t="inlineStr">
+      <c r="B62" s="10" t="inlineStr">
         <is>
           <t>체육시설에 대해 알려줘</t>
         </is>
@@ -2427,17 +2338,17 @@
         </is>
       </c>
       <c r="D62" s="3" t="n"/>
-      <c r="E62" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A63" s="25" t="inlineStr">
+      <c r="E62" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B63" s="29" t="inlineStr">
+      <c r="B63" s="10" t="inlineStr">
         <is>
           <t>농구장에 대해 알려줘</t>
         </is>
@@ -2452,17 +2363,17 @@
         </is>
       </c>
       <c r="D63" s="3" t="n"/>
-      <c r="E63" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A64" s="25" t="inlineStr">
+      <c r="E63" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B64" s="29" t="inlineStr">
+      <c r="B64" s="10" t="inlineStr">
         <is>
           <t>배구장에 대해 알려줘</t>
         </is>
@@ -2479,17 +2390,17 @@
         </is>
       </c>
       <c r="D64" s="3" t="n"/>
-      <c r="E64" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A65" s="25" t="inlineStr">
+      <c r="E64" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B65" s="25" t="inlineStr">
+      <c r="B65" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 배드민턴장에 대해 알려줘</t>
         </is>
@@ -2507,17 +2418,17 @@
         </is>
       </c>
       <c r="D65" s="3" t="n"/>
-      <c r="E65" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A66" s="25" t="inlineStr">
+      <c r="E65" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B66" s="25" t="inlineStr">
+      <c r="B66" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 체력단련실에 대해 알려줘</t>
         </is>
@@ -2535,17 +2446,17 @@
         </is>
       </c>
       <c r="D66" s="3" t="n"/>
-      <c r="E66" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A67" s="25" t="inlineStr">
+      <c r="E66" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B67" s="25" t="inlineStr">
+      <c r="B67" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 검도장에 대해 알려줘</t>
         </is>
@@ -2561,17 +2472,17 @@
         </is>
       </c>
       <c r="D67" s="3" t="n"/>
-      <c r="E67" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A68" s="25" t="inlineStr">
+      <c r="E67" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A68" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B68" s="25" t="inlineStr">
+      <c r="B68" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 태권도실에 대해 알려줘</t>
         </is>
@@ -2588,17 +2499,17 @@
         </is>
       </c>
       <c r="D68" s="3" t="n"/>
-      <c r="E68" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A69" s="25" t="inlineStr">
+      <c r="E68" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B69" s="25" t="inlineStr">
+      <c r="B69" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 탁구장에 대해 알려줘</t>
         </is>
@@ -2614,17 +2525,17 @@
         </is>
       </c>
       <c r="D69" s="3" t="n"/>
-      <c r="E69" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A70" s="25" t="inlineStr">
+      <c r="E69" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B70" s="25" t="inlineStr">
+      <c r="B70" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 체육관경기장에 대해 알려줘</t>
         </is>
@@ -2640,17 +2551,17 @@
         </is>
       </c>
       <c r="D70" s="3" t="n"/>
-      <c r="E70" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A71" s="25" t="inlineStr">
+      <c r="E70" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B71" s="25" t="inlineStr">
+      <c r="B71" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 대운동장에 대해 알려줘</t>
         </is>
@@ -2667,17 +2578,17 @@
         </is>
       </c>
       <c r="D71" s="3" t="n"/>
-      <c r="E71" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A72" s="25" t="inlineStr">
+      <c r="E71" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B72" s="25" t="inlineStr">
+      <c r="B72" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 운동장기구실에 대해 알려줘</t>
         </is>
@@ -2694,17 +2605,17 @@
         </is>
       </c>
       <c r="D72" s="3" t="n"/>
-      <c r="E72" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A73" s="25" t="inlineStr">
+      <c r="E72" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B73" s="29" t="inlineStr">
+      <c r="B73" s="10" t="inlineStr">
         <is>
           <t>기숙사에 대해 알려줘</t>
         </is>
@@ -2736,17 +2647,17 @@
         </is>
       </c>
       <c r="D73" s="3" t="n"/>
-      <c r="E73" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A74" s="25" t="inlineStr">
+      <c r="E73" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B74" s="25" t="inlineStr">
+      <c r="B74" s="10" t="inlineStr">
         <is>
           <t>제1기숙사에 대해 알려줘</t>
         </is>
@@ -2771,17 +2682,17 @@
         </is>
       </c>
       <c r="D74" s="3" t="n"/>
-      <c r="E74" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A75" s="25" t="inlineStr">
+      <c r="E74" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B75" s="25" t="inlineStr">
+      <c r="B75" s="10" t="inlineStr">
         <is>
           <t>제2기숙사에 대해 알려줘</t>
         </is>
@@ -2805,17 +2716,17 @@
         </is>
       </c>
       <c r="D75" s="3" t="n"/>
-      <c r="E75" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A76" s="25" t="inlineStr">
+      <c r="E75" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B76" s="25" t="inlineStr">
+      <c r="B76" s="10" t="inlineStr">
         <is>
           <t>제3기숙사에 대해 알려줘</t>
         </is>
@@ -2839,17 +2750,17 @@
         </is>
       </c>
       <c r="D76" s="3" t="n"/>
-      <c r="E76" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A77" s="25" t="inlineStr">
+      <c r="E76" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B77" s="30" t="inlineStr">
+      <c r="B77" s="15" t="inlineStr">
         <is>
           <t>박물관에 대해 알려줘</t>
         </is>
@@ -2862,17 +2773,17 @@
         </is>
       </c>
       <c r="D77" s="3" t="n"/>
-      <c r="E77" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A78" s="25" t="inlineStr">
+      <c r="E77" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B78" s="30" t="inlineStr">
+      <c r="B78" s="15" t="inlineStr">
         <is>
           <t>현대미술관에 대해 알려줘</t>
         </is>
@@ -2893,107 +2804,117 @@
         </is>
       </c>
       <c r="D78" s="3" t="n"/>
-      <c r="E78" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A79" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B79" s="26" t="inlineStr">
+      <c r="E78" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="inlineStr">
         <is>
           <t>학교 일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C79" s="22" t="inlineStr">
-        <is>
-          <t>"몇 월 학사일정이 궁금하세요?"</t>
-        </is>
-      </c>
-      <c r="D79" s="22" t="inlineStr">
+      <c r="C79" s="16" t="inlineStr">
+        <is>
+          <t>몇 월 학사일정이 궁금하세요?</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
         <is>
           <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
         </is>
       </c>
-      <c r="E79" s="9" t="n">
+      <c r="E79" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80" ht="25" customHeight="1">
-      <c r="A80" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B80" s="25" t="inlineStr">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="inlineStr">
         <is>
           <t>학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C80" s="22" t="inlineStr">
-        <is>
-          <t>"몇 월 학사일정이 궁금하세요?"</t>
-        </is>
-      </c>
-      <c r="D80" s="22" t="inlineStr">
+      <c r="C80" s="17" t="inlineStr">
+        <is>
+          <t>몇 월 학사일정이 궁금하세요?</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
         <is>
           <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
         </is>
       </c>
-      <c r="E80" s="6" t="n">
+      <c r="E80" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81" ht="25" customHeight="1">
-      <c r="A81" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B81" s="25" t="inlineStr">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B81" s="10" t="inlineStr">
         <is>
           <t>이번달 학사일정에 대해 알려줘</t>
         </is>
       </c>
+      <c r="C81" s="17" t="inlineStr">
+        <is>
+          <t>몇 월 학사일정이 궁금하세요?</t>
+        </is>
+      </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
           <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
         </is>
       </c>
-      <c r="E81" s="6" t="n">
+      <c r="E81" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82" ht="25" customHeight="1">
-      <c r="A82" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B82" s="25" t="inlineStr">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B82" s="10" t="inlineStr">
         <is>
           <t>다음달 학사일정에 대해 알려줘</t>
         </is>
       </c>
+      <c r="C82" s="17" t="inlineStr">
+        <is>
+          <t>몇 월 학사일정이 궁금하세요?</t>
+        </is>
+      </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
           <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
         </is>
       </c>
-      <c r="E82" s="6" t="n">
+      <c r="E82" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83" ht="25" customHeight="1">
-      <c r="A83" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B83" s="25" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="inlineStr">
         <is>
           <t>1월 학사일정에 대해 알려줘</t>
         </is>
@@ -3006,17 +2927,18 @@
 2024학년도 1학기 복학신청: 24일(수) ~ 2월 1일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E83" s="6" t="n">
+      <c r="D83" s="25" t="n"/>
+      <c r="E83" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" ht="25" customHeight="1">
-      <c r="A84" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B84" s="25" t="inlineStr">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="inlineStr">
         <is>
           <t>2월 학사일정에 대해 알려줘</t>
         </is>
@@ -3034,17 +2956,18 @@
 2024학년도 1학기 수강신청: 23일(금) ~ 28일(수) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E84" s="6" t="n">
+      <c r="D84" s="25" t="n"/>
+      <c r="E84" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" ht="25" customHeight="1">
-      <c r="A85" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B85" s="25" t="inlineStr">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="inlineStr">
         <is>
           <t>3월 학사일정에 대해 알려줘</t>
         </is>
@@ -3059,17 +2982,18 @@
 강의중간평가: 29일(금) ~ 4월 19일(금) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E85" s="6" t="n">
+      <c r="D85" s="25" t="n"/>
+      <c r="E85" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" ht="25" customHeight="1">
-      <c r="A86" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B86" s="25" t="inlineStr">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="inlineStr">
         <is>
           <t>4월 학사일정에 대해 알려줘</t>
         </is>
@@ -3082,17 +3006,18 @@
 2024학년도 1학기 사이버강좌 중간고사: 20일(토) ~ 21일(일) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E86" s="6" t="n">
+      <c r="D86" s="25" t="n"/>
+      <c r="E86" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" ht="25" customHeight="1">
-      <c r="A87" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B87" s="25" t="inlineStr">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B87" s="10" t="inlineStr">
         <is>
           <t>5월 학사일정에 대해 알려줘</t>
         </is>
@@ -3110,17 +3035,18 @@
 2024학년도 2학기 교내장학금 신청(~6.20(목) 18시): 21일(화) ~ 6월 20일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E87" s="6" t="n">
+      <c r="D87" s="25" t="n"/>
+      <c r="E87" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88" ht="25" customHeight="1">
-      <c r="A88" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B88" s="25" t="inlineStr">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B88" s="10" t="inlineStr">
         <is>
           <t>6월 학사일정에 대해 알려줘</t>
         </is>
@@ -3143,17 +3069,18 @@
 2024학년도 하계 계절학기: 28일(금) ~ 7월 18일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E88" s="6" t="n">
+      <c r="D88" s="25" t="n"/>
+      <c r="E88" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89" ht="25" customHeight="1">
-      <c r="A89" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B89" s="25" t="inlineStr">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B89" s="10" t="inlineStr">
         <is>
           <t>7월 학사일정에 대해 알려줘</t>
         </is>
@@ -3172,17 +3099,18 @@
 2024학년도 2학기 복학신청: 23일(화) ~ 8월 1일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E89" s="6" t="n">
+      <c r="D89" s="25" t="n"/>
+      <c r="E89" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" ht="25" customHeight="1">
-      <c r="A90" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B90" s="25" t="inlineStr">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B90" s="10" t="inlineStr">
         <is>
           <t>8월 학사일정에 대해 알려줘</t>
         </is>
@@ -3202,17 +3130,18 @@
 2024학년도 2학기 등록 및 휴학신청: 23일(금) ~ 29일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E90" s="6" t="n">
+      <c r="D90" s="25" t="n"/>
+      <c r="E90" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" ht="25" customHeight="1">
-      <c r="A91" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B91" s="25" t="inlineStr">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B91" s="10" t="inlineStr">
         <is>
           <t>9월 학사일정에 대해 알려줘</t>
         </is>
@@ -3230,17 +3159,18 @@
 추석연휴: 18일(수) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E91" s="6" t="n">
+      <c r="D91" s="25" t="n"/>
+      <c r="E91" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" ht="25" customHeight="1">
-      <c r="A92" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B92" s="25" t="inlineStr">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B92" s="10" t="inlineStr">
         <is>
           <t>10월 학사일정에 대해 알려줘</t>
         </is>
@@ -3256,17 +3186,18 @@
 2024학년도 2학기 사이버강좌 중간고사: 19일(토) ~ 20일(일) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E92" s="6" t="n">
+      <c r="D92" s="25" t="n"/>
+      <c r="E92" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" ht="25" customHeight="1">
-      <c r="A93" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B93" s="25" t="inlineStr">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B93" s="10" t="inlineStr">
         <is>
           <t>11월 학사일정에 대해 알려줘</t>
         </is>
@@ -3279,17 +3210,18 @@
 2025학년도 1학기 교내장학금 신청(기간 별도공지): 1일(금) ~  12월 31일(일) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E93" s="6" t="n">
+      <c r="D93" s="25" t="n"/>
+      <c r="E93" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" ht="25" customHeight="1">
-      <c r="A94" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B94" s="25" t="inlineStr">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B94" s="10" t="inlineStr">
         <is>
           <t>12월 학사일정에 대해 알려줘</t>
         </is>
@@ -3310,24 +3242,25 @@
 2024학년도 동계 계절학기(예정): 27일(금) ~ 1월 17일(금) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E94" s="6" t="n">
+      <c r="D94" s="25" t="n"/>
+      <c r="E94" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" ht="25" customHeight="1">
-      <c r="A95" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B95" s="25" t="inlineStr">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B95" s="10" t="inlineStr">
         <is>
           <t>오늘의 학사일정에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C95" s="4" t="inlineStr">
-        <is>
-          <t>12</t>
+      <c r="C95" s="17" t="inlineStr">
+        <is>
+          <t>몇 월 학사일정이 궁금하세요?</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
@@ -3335,17 +3268,17 @@
           <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
         </is>
       </c>
-      <c r="E95" s="6" t="n">
+      <c r="E95" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96" ht="25" customHeight="1">
-      <c r="A96" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B96" s="25" t="inlineStr">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B96" s="10" t="inlineStr">
         <is>
           <t>2024학년도 신입생 정시모집 입학전형</t>
         </is>
@@ -3355,17 +3288,18 @@
           <t>2023년 12월 1일(금) ~ 2024년 2월 29일(목)</t>
         </is>
       </c>
-      <c r="E96" s="6" t="n">
+      <c r="D96" s="25" t="n"/>
+      <c r="E96" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" ht="25" customHeight="1">
-      <c r="A97" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B97" s="25" t="inlineStr">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B97" s="10" t="inlineStr">
         <is>
           <t>2024학년도 편입생 입학전형</t>
         </is>
@@ -3375,17 +3309,18 @@
           <t>2023년 12월 1일(금) ~ 2024년 2월 29일(목)</t>
         </is>
       </c>
-      <c r="E97" s="6" t="n">
+      <c r="D97" s="25" t="n"/>
+      <c r="E97" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
-      <c r="A98" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B98" s="25" t="inlineStr">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B98" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 복학신청</t>
         </is>
@@ -3395,17 +3330,18 @@
           <t>1월 24일(수) ~ 2월 1일(목)</t>
         </is>
       </c>
-      <c r="E98" s="6" t="n">
+      <c r="D98" s="25" t="n"/>
+      <c r="E98" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
-      <c r="A99" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B99" s="25" t="inlineStr">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B99" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 수강과목 사전선택</t>
         </is>
@@ -3415,17 +3351,18 @@
           <t>2월 2일(금) ~ 3일(토)</t>
         </is>
       </c>
-      <c r="E99" s="6" t="n">
+      <c r="D99" s="25" t="n"/>
+      <c r="E99" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" ht="25" customHeight="1">
-      <c r="A100" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B100" s="25" t="inlineStr">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B100" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 등록 및 휴학신청</t>
         </is>
@@ -3435,17 +3372,18 @@
           <t>2월 22일(목) ~ 28일(수)</t>
         </is>
       </c>
-      <c r="E100" s="6" t="n">
+      <c r="D100" s="25" t="n"/>
+      <c r="E100" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
-      <c r="A101" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B101" s="25" t="inlineStr">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B101" s="10" t="inlineStr">
         <is>
           <t>2023학년도 전기 학위수여식(제74회)</t>
         </is>
@@ -3455,17 +3393,18 @@
           <t>2월 22일(목)</t>
         </is>
       </c>
-      <c r="E101" s="6" t="n">
+      <c r="D101" s="25" t="n"/>
+      <c r="E101" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
-      <c r="A102" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B102" s="25" t="inlineStr">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B102" s="10" t="inlineStr">
         <is>
           <t>2024학년도 신입생 입학식</t>
         </is>
@@ -3475,37 +3414,39 @@
           <t>2월 23일(금)</t>
         </is>
       </c>
-      <c r="E102" s="6" t="n">
+      <c r="D102" s="25" t="n"/>
+      <c r="E102" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
-      <c r="A103" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B103" s="25" t="inlineStr">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B103" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 수강신청</t>
         </is>
       </c>
-      <c r="C103" s="12" t="inlineStr">
+      <c r="C103" s="18" t="inlineStr">
         <is>
           <t>2월 23일(금) ~ 28일(수)</t>
         </is>
       </c>
-      <c r="E103" s="6" t="n">
+      <c r="D103" s="25" t="n"/>
+      <c r="E103" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
-      <c r="A104" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B104" s="25" t="inlineStr">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B104" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 개강</t>
         </is>
@@ -3515,17 +3456,18 @@
           <t>3월 4일(월)</t>
         </is>
       </c>
-      <c r="E104" s="6" t="n">
+      <c r="D104" s="25" t="n"/>
+      <c r="E104" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
-      <c r="A105" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B105" s="25" t="inlineStr">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B105" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 수강신청 정정</t>
         </is>
@@ -3535,17 +3477,18 @@
           <t>3월 4일(월) ~ 11일(월)</t>
         </is>
       </c>
-      <c r="E105" s="6" t="n">
+      <c r="D105" s="25" t="n"/>
+      <c r="E105" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
-      <c r="A106" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B106" s="25" t="inlineStr">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B106" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 학기초과자(미졸자) 등록금 납부기간</t>
         </is>
@@ -3555,17 +3498,18 @@
           <t>3월 27일(수) ~ 29일(금)</t>
         </is>
       </c>
-      <c r="E106" s="6" t="n">
+      <c r="D106" s="25" t="n"/>
+      <c r="E106" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
-      <c r="A107" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B107" s="25" t="inlineStr">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B107" s="10" t="inlineStr">
         <is>
           <t>강의중간평가</t>
         </is>
@@ -3575,17 +3519,18 @@
           <t>3월 29일(금) ~ 4월 19일(금)</t>
         </is>
       </c>
-      <c r="E107" s="6" t="n">
+      <c r="D107" s="25" t="n"/>
+      <c r="E107" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
-      <c r="A108" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B108" s="25" t="inlineStr">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B108" s="10" t="inlineStr">
         <is>
           <t>1학기 사이버강좌 중간고사</t>
         </is>
@@ -3595,17 +3540,18 @@
           <t>4월 20일(토) ~ 21일(일)</t>
         </is>
       </c>
-      <c r="E108" s="6" t="n">
+      <c r="D108" s="25" t="n"/>
+      <c r="E108" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
-      <c r="A109" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B109" s="25" t="inlineStr">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B109" s="10" t="inlineStr">
         <is>
           <t>2024년 후기 신입생(외국인) 입학전형</t>
         </is>
@@ -3615,17 +3561,18 @@
           <t>5월 1일(수) ~ 7월 31일(월)</t>
         </is>
       </c>
-      <c r="E109" s="6" t="n">
+      <c r="D109" s="25" t="n"/>
+      <c r="E109" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
-      <c r="A110" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B110" s="25" t="inlineStr">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B110" s="10" t="inlineStr">
         <is>
           <t>2학기 재입학신청</t>
         </is>
@@ -3635,17 +3582,18 @@
           <t>5월 2일(목) ~ 31일(금)</t>
         </is>
       </c>
-      <c r="E110" s="6" t="n">
+      <c r="D110" s="25" t="n"/>
+      <c r="E110" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" ht="25" customHeight="1">
-      <c r="A111" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B111" s="25" t="inlineStr">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B111" s="10" t="inlineStr">
         <is>
           <t>학사학위취득유예 신청(2024년 8월 졸업대상자)</t>
         </is>
@@ -3655,17 +3603,18 @@
           <t>5월 13일(월) ~ 7월 19일(금)</t>
         </is>
       </c>
-      <c r="E111" s="6" t="n">
+      <c r="D111" s="25" t="n"/>
+      <c r="E111" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
-      <c r="A112" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B112" s="25" t="inlineStr">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B112" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 교내장학금 신청</t>
         </is>
@@ -3675,17 +3624,18 @@
           <t>5월 21일(화) ~ 6월 20일(목) 18시</t>
         </is>
       </c>
-      <c r="E112" s="6" t="n">
+      <c r="D112" s="25" t="n"/>
+      <c r="E112" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
-      <c r="A113" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B113" s="25" t="inlineStr">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B113" s="10" t="inlineStr">
         <is>
           <t>2024학년도 하계 계절학기 수강신청</t>
         </is>
@@ -3695,17 +3645,18 @@
           <t>6월  11일(화) ~ 13일(목)</t>
         </is>
       </c>
-      <c r="E113" s="6" t="n">
+      <c r="D113" s="25" t="n"/>
+      <c r="E113" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" ht="25" customHeight="1">
-      <c r="A114" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B114" s="25" t="inlineStr">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B114" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 종강</t>
         </is>
@@ -3715,17 +3666,18 @@
           <t>6월 14일(금)</t>
         </is>
       </c>
-      <c r="E114" s="6" t="n">
+      <c r="D114" s="25" t="n"/>
+      <c r="E114" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" ht="25" customHeight="1">
-      <c r="A115" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B115" s="25" t="inlineStr">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B115" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 성적입력 및 정정(예정)</t>
         </is>
@@ -3735,17 +3687,18 @@
           <t>6월 14일(금) ~ 7월 4일(목)</t>
         </is>
       </c>
-      <c r="E115" s="6" t="n">
+      <c r="D115" s="25" t="n"/>
+      <c r="E115" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" ht="25" customHeight="1">
-      <c r="A116" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B116" s="25" t="inlineStr">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B116" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 사이버강좌 기말고사</t>
         </is>
@@ -3755,17 +3708,18 @@
           <t>6월 15일(토) ~ 16일(일)</t>
         </is>
       </c>
-      <c r="E116" s="6" t="n">
+      <c r="D116" s="25" t="n"/>
+      <c r="E116" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" ht="25" customHeight="1">
-      <c r="A117" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B117" s="25" t="inlineStr">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B117" s="10" t="inlineStr">
         <is>
           <t>2024학년도 1학기 공휴일로 인한 수업보강기간</t>
         </is>
@@ -3775,17 +3729,18 @@
           <t>6월 17일(월) ~ 21일(금)</t>
         </is>
       </c>
-      <c r="E117" s="6" t="n">
+      <c r="D117" s="25" t="n"/>
+      <c r="E117" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" ht="25" customHeight="1">
-      <c r="A118" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B118" s="25" t="inlineStr">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B118" s="10" t="inlineStr">
         <is>
           <t>2024학년도 하계 계절학기 수강신청(2차)</t>
         </is>
@@ -3795,17 +3750,18 @@
           <t>6월 18일(화)</t>
         </is>
       </c>
-      <c r="E118" s="6" t="n">
+      <c r="D118" s="25" t="n"/>
+      <c r="E118" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" ht="25" customHeight="1">
-      <c r="A119" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B119" s="25" t="inlineStr">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B119" s="10" t="inlineStr">
         <is>
           <t>개교기념일</t>
         </is>
@@ -3815,17 +3771,18 @@
           <t>6월 22일(토)</t>
         </is>
       </c>
-      <c r="E119" s="6" t="n">
+      <c r="D119" s="25" t="n"/>
+      <c r="E119" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1">
-      <c r="A120" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B120" s="25" t="inlineStr">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B120" s="10" t="inlineStr">
         <is>
           <t>2024학년도 하계 계절학기</t>
         </is>
@@ -3835,17 +3792,18 @@
           <t>6월 28일(금) ~ 7월 18일(목)</t>
         </is>
       </c>
-      <c r="E120" s="6" t="n">
+      <c r="D120" s="25" t="n"/>
+      <c r="E120" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" ht="25" customHeight="1">
-      <c r="A121" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B121" s="25" t="inlineStr">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B121" s="10" t="inlineStr">
         <is>
           <t>2025학년도 신입생 재외국민 특별전형</t>
         </is>
@@ -3855,17 +3813,18 @@
           <t>7월 1일(월) ~ 10월 31일(화)</t>
         </is>
       </c>
-      <c r="E121" s="6" t="n">
+      <c r="D121" s="25" t="n"/>
+      <c r="E121" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" ht="25" customHeight="1">
-      <c r="A122" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B122" s="25" t="inlineStr">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B122" s="10" t="inlineStr">
         <is>
           <t>2025년 전기 신입생(외국인) 입학전형</t>
         </is>
@@ -3875,17 +3834,18 @@
           <t>7월 1일(월) ~ 11월 30일(금)</t>
         </is>
       </c>
-      <c r="E122" s="6" t="n">
+      <c r="D122" s="25" t="n"/>
+      <c r="E122" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" ht="25" customHeight="1">
-      <c r="A123" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B123" s="25" t="inlineStr">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B123" s="10" t="inlineStr">
         <is>
           <t>조기졸업 신청(2024년 8월 졸업대상자)</t>
         </is>
@@ -3895,17 +3855,18 @@
           <t>7월 5일(금) ~ 12일(금)</t>
         </is>
       </c>
-      <c r="E123" s="6" t="n">
+      <c r="D123" s="25" t="n"/>
+      <c r="E123" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" ht="25" customHeight="1">
-      <c r="A124" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B124" s="25" t="inlineStr">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B124" s="10" t="inlineStr">
         <is>
           <t>2024학년도 하계 계절학기 사이버강좌 기말고사</t>
         </is>
@@ -3915,17 +3876,18 @@
           <t>7월 13일(토)</t>
         </is>
       </c>
-      <c r="E124" s="6" t="n">
+      <c r="D124" s="25" t="n"/>
+      <c r="E124" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" ht="25" customHeight="1">
-      <c r="A125" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B125" s="25" t="inlineStr">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B125" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 복학신청</t>
         </is>
@@ -3935,17 +3897,18 @@
           <t>7월 23일(화) ~ 8월 1일(목)</t>
         </is>
       </c>
-      <c r="E125" s="13" t="n">
+      <c r="D125" s="25" t="n"/>
+      <c r="E125" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
-      <c r="A126" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B126" s="25" t="inlineStr">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B126" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 수강과목 사전선택(1차)</t>
         </is>
@@ -3955,17 +3918,18 @@
           <t>8월 5일(월) ~ 6일(화)</t>
         </is>
       </c>
-      <c r="E126" s="6" t="n">
+      <c r="D126" s="25" t="n"/>
+      <c r="E126" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
-      <c r="A127" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B127" s="25" t="inlineStr">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B127" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 추가 복학신청 (최종)</t>
         </is>
@@ -3975,17 +3939,18 @@
           <t>8월 9일(금) ~ 15일(목)</t>
         </is>
       </c>
-      <c r="E127" s="6" t="n">
+      <c r="D127" s="25" t="n"/>
+      <c r="E127" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128" ht="25" customHeight="1">
-      <c r="A128" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B128" s="25" t="inlineStr">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B128" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 수강과목 사전선택(2차)</t>
         </is>
@@ -3995,17 +3960,18 @@
           <t>8월 16일(금) ~ 22일(목)</t>
         </is>
       </c>
-      <c r="E128" s="6" t="n">
+      <c r="D128" s="25" t="n"/>
+      <c r="E128" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" ht="25" customHeight="1">
-      <c r="A129" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B129" s="25" t="inlineStr">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B129" s="10" t="inlineStr">
         <is>
           <t>2023학년도 후기 학위수여식(제74회)</t>
         </is>
@@ -4015,17 +3981,18 @@
           <t>8월 22일(목)</t>
         </is>
       </c>
-      <c r="E129" s="6" t="n">
+      <c r="D129" s="25" t="n"/>
+      <c r="E129" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" ht="25" customHeight="1">
-      <c r="A130" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B130" s="25" t="inlineStr">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B130" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 수강신청</t>
         </is>
@@ -4035,17 +4002,18 @@
           <t>8월 23일(금) ~ 28일(수)</t>
         </is>
       </c>
-      <c r="E130" s="6" t="n">
+      <c r="D130" s="25" t="n"/>
+      <c r="E130" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" ht="25" customHeight="1">
-      <c r="A131" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B131" s="25" t="inlineStr">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B131" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 등록 및 휴학신청</t>
         </is>
@@ -4055,17 +4023,18 @@
           <t>8월 23일(금) ~ 29일(목)</t>
         </is>
       </c>
-      <c r="E131" s="6" t="n">
+      <c r="D131" s="25" t="n"/>
+      <c r="E131" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" ht="25" customHeight="1">
-      <c r="A132" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B132" s="25" t="inlineStr">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B132" s="10" t="inlineStr">
         <is>
           <t>2025학년도 신입생 수시모집 입학전형</t>
         </is>
@@ -4075,17 +4044,18 @@
           <t>9월 1일(일) ~ 12월 31일(일)</t>
         </is>
       </c>
-      <c r="E132" s="6" t="n">
+      <c r="D132" s="25" t="n"/>
+      <c r="E132" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
-      <c r="A133" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B133" s="25" t="inlineStr">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B133" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 개강</t>
         </is>
@@ -4095,17 +4065,18 @@
           <t>9월 2일(월)</t>
         </is>
       </c>
-      <c r="E133" s="6" t="n">
+      <c r="D133" s="25" t="n"/>
+      <c r="E133" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" ht="25" customHeight="1">
-      <c r="A134" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B134" s="25" t="inlineStr">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B134" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 수강신청 정정(~9.9 17시까지)</t>
         </is>
@@ -4115,17 +4086,18 @@
           <t>9월 2일(월) ~ 9일(월)</t>
         </is>
       </c>
-      <c r="E134" s="6" t="n">
+      <c r="D134" s="25" t="n"/>
+      <c r="E134" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135" ht="25" customHeight="1">
-      <c r="A135" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B135" s="25" t="inlineStr">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B135" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 사이버강좌 중간고사</t>
         </is>
@@ -4135,17 +4107,18 @@
           <t>10월 19일(토) ~ 20일(일)</t>
         </is>
       </c>
-      <c r="E135" s="6" t="n">
+      <c r="D135" s="25" t="n"/>
+      <c r="E135" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136" ht="25" customHeight="1">
-      <c r="A136" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B136" s="25" t="inlineStr">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B136" s="10" t="inlineStr">
         <is>
           <t>2025학년도 1학기 교내장학금 신청(기간 별도공지)</t>
         </is>
@@ -4155,17 +4128,18 @@
           <t>11월 1일(금) ~ 12월 31일(일)</t>
         </is>
       </c>
-      <c r="E136" s="6" t="n">
+      <c r="D136" s="25" t="n"/>
+      <c r="E136" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1">
-      <c r="A137" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B137" s="25" t="inlineStr">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B137" s="10" t="inlineStr">
         <is>
           <t>2025학년도 신입생 정시모집 입학전형</t>
         </is>
@@ -4175,17 +4149,18 @@
           <t>12월 1일(일) ~ 2월 28일(토)</t>
         </is>
       </c>
-      <c r="E137" s="6" t="n">
+      <c r="D137" s="25" t="n"/>
+      <c r="E137" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" ht="25" customHeight="1">
-      <c r="A138" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B138" s="25" t="inlineStr">
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B138" s="10" t="inlineStr">
         <is>
           <t>2025학년도 편입생 입학전형</t>
         </is>
@@ -4195,17 +4170,18 @@
           <t>12월 1일(일) ~ 2월 28일(토)</t>
         </is>
       </c>
-      <c r="E138" s="6" t="n">
+      <c r="D138" s="25" t="n"/>
+      <c r="E138" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" ht="25" customHeight="1">
-      <c r="A139" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B139" s="25" t="inlineStr">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B139" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 종강</t>
         </is>
@@ -4215,17 +4191,18 @@
           <t>12월 14일(토) ~ 3일(금)</t>
         </is>
       </c>
-      <c r="E139" s="6" t="n">
+      <c r="D139" s="25" t="n"/>
+      <c r="E139" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140" ht="25" customHeight="1">
-      <c r="A140" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B140" s="25" t="inlineStr">
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B140" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 사이버강좌 기말고사</t>
         </is>
@@ -4235,17 +4212,18 @@
           <t>12월 14일(토) ~ 15일(일), 21(토)</t>
         </is>
       </c>
-      <c r="E140" s="6" t="n">
+      <c r="D140" s="25" t="n"/>
+      <c r="E140" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" ht="25" customHeight="1">
-      <c r="A141" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B141" s="25" t="inlineStr">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B141" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 성적입력 및 정정(예정)</t>
         </is>
@@ -4255,17 +4233,18 @@
           <t>12월 14일(토) ~ 1월 3일(금)</t>
         </is>
       </c>
-      <c r="E141" s="6" t="n">
+      <c r="D141" s="25" t="n"/>
+      <c r="E141" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" ht="25" customHeight="1">
-      <c r="A142" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B142" s="25" t="inlineStr">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B142" s="10" t="inlineStr">
         <is>
           <t>2024학년도 2학기 공휴일로 인한 수업보강기간</t>
         </is>
@@ -4275,17 +4254,18 @@
           <t>12월 16일(월) ~ 20일(금)</t>
         </is>
       </c>
-      <c r="E142" s="6" t="n">
+      <c r="D142" s="25" t="n"/>
+      <c r="E142" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" ht="25" customHeight="1">
-      <c r="A143" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B143" s="25" t="inlineStr">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B143" s="10" t="inlineStr">
         <is>
           <t>2024학년도 동계 계절학기(예정)</t>
         </is>
@@ -4295,137 +4275,144 @@
           <t>12월 27일(금) ~ 1월 17일(금)</t>
         </is>
       </c>
-      <c r="E143" s="6" t="n">
+      <c r="D143" s="25" t="n"/>
+      <c r="E143" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" ht="25" customHeight="1">
-      <c r="A144" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B144" s="25" t="inlineStr">
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B144" s="10" t="inlineStr">
         <is>
           <t>2025학년도 1학기 복학신청(예정)</t>
         </is>
       </c>
-      <c r="C144" s="12" t="inlineStr">
+      <c r="C144" s="18" t="inlineStr">
         <is>
           <t>2025년 1월 24일(금) ~ 2월 2일(일)</t>
         </is>
       </c>
-      <c r="E144" s="6" t="n">
+      <c r="D144" s="25" t="n"/>
+      <c r="E144" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" ht="25" customHeight="1">
-      <c r="A145" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B145" s="25" t="inlineStr">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B145" s="10" t="inlineStr">
         <is>
           <t>2025학년도 1학기 수강과목 사전선택(예정)</t>
         </is>
       </c>
-      <c r="C145" s="12" t="inlineStr">
+      <c r="C145" s="18" t="inlineStr">
         <is>
           <t>2월 4일(화) ~ 5일(수)</t>
         </is>
       </c>
-      <c r="E145" s="6" t="n">
+      <c r="D145" s="25" t="n"/>
+      <c r="E145" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146" ht="25" customHeight="1">
-      <c r="A146" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B146" s="25" t="inlineStr">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B146" s="10" t="inlineStr">
         <is>
           <t>2024학년도 전기 학위수여식(제75회)</t>
         </is>
       </c>
-      <c r="C146" s="12" t="inlineStr">
+      <c r="C146" s="18" t="inlineStr">
         <is>
           <t>2월 21일(금)</t>
         </is>
       </c>
-      <c r="E146" s="6" t="n">
+      <c r="D146" s="25" t="n"/>
+      <c r="E146" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147" ht="25" customHeight="1">
-      <c r="A147" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B147" s="25" t="inlineStr">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B147" s="10" t="inlineStr">
         <is>
           <t>2025학년도 1학기 등록 및 휴학신청(예정)</t>
         </is>
       </c>
-      <c r="C147" s="12" t="inlineStr">
+      <c r="C147" s="18" t="inlineStr">
         <is>
           <t>2월 21일(금) ~ 27일(목)</t>
         </is>
       </c>
-      <c r="E147" s="6" t="n">
+      <c r="D147" s="25" t="n"/>
+      <c r="E147" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148" ht="25" customHeight="1">
-      <c r="A148" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B148" s="25" t="inlineStr">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B148" s="10" t="inlineStr">
         <is>
           <t>2025학년도 신입생 입학식</t>
         </is>
       </c>
-      <c r="C148" s="12" t="inlineStr">
+      <c r="C148" s="18" t="inlineStr">
         <is>
           <t>2월 24일(월)</t>
         </is>
       </c>
-      <c r="E148" s="6" t="n">
+      <c r="D148" s="25" t="n"/>
+      <c r="E148" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149" ht="25" customHeight="1">
-      <c r="A149" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B149" s="25" t="inlineStr">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B149" s="10" t="inlineStr">
         <is>
           <t>2025학년도 1학기 수강신청(예정)</t>
         </is>
       </c>
-      <c r="C149" s="12" t="inlineStr">
+      <c r="C149" s="18" t="inlineStr">
         <is>
           <t>2월 24일(월) ~ 27일(목)</t>
         </is>
       </c>
-      <c r="E149" s="6" t="n">
+      <c r="D149" s="25" t="n"/>
+      <c r="E149" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150" ht="25" customHeight="1">
-      <c r="A150" s="25" t="inlineStr">
-        <is>
-          <t>학사일정</t>
-        </is>
-      </c>
-      <c r="B150" s="25" t="inlineStr">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>학사일정</t>
+        </is>
+      </c>
+      <c r="B150" s="10" t="inlineStr">
         <is>
           <t>수강신청 일정</t>
         </is>
@@ -4444,475 +4431,493 @@
 2024학년도 2학기 수강신청 정정(~9.9 17시까지): 9월 2일(월) ~ 9일"</t>
         </is>
       </c>
-      <c r="E150" s="6" t="n">
+      <c r="D150" s="25" t="n"/>
+      <c r="E150" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151" ht="25" customHeight="1">
-      <c r="A151" s="25" t="inlineStr">
+      <c r="A151" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B151" s="26" t="inlineStr">
+      <c r="B151" s="10" t="inlineStr">
         <is>
           <t>날씨 어때</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.98 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 2.25 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 1.29 최고 기온 : 4.95 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E151" s="6" t="n">
+      <c r="D151" s="25" t="n"/>
+      <c r="E151" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152" ht="25" customHeight="1">
-      <c r="A152" s="25" t="inlineStr">
+      <c r="A152" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B152" s="26" t="inlineStr">
+      <c r="B152" s="10" t="inlineStr">
         <is>
           <t>오늘 날씨 어때</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.98 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 2.25 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 1.29 최고 기온 : 4.95 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E152" s="6" t="n">
+      <c r="D152" s="25" t="n"/>
+      <c r="E152" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153" ht="25" customHeight="1">
-      <c r="A153" s="25" t="inlineStr">
+      <c r="A153" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B153" s="31" t="inlineStr">
+      <c r="B153" s="10" t="inlineStr">
         <is>
           <t>오늘 날씨 알려줘</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.98 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 2.25 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 1.29 최고 기온 : 4.95 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E153" s="6" t="n">
+      <c r="D153" s="25" t="n"/>
+      <c r="E153" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154" ht="25" customHeight="1">
-      <c r="A154" s="25" t="inlineStr">
+      <c r="A154" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B154" s="29" t="inlineStr">
+      <c r="B154" s="10" t="inlineStr">
         <is>
           <t>오늘 비 와?</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.98 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 2.25 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 1.29 최고 기온 : 4.95 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E154" s="6" t="n">
+      <c r="D154" s="25" t="n"/>
+      <c r="E154" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155" ht="25" customHeight="1">
-      <c r="A155" s="25" t="inlineStr">
+      <c r="A155" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B155" s="29" t="inlineStr">
+      <c r="B155" s="10" t="inlineStr">
         <is>
           <t>오늘 맑아?</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.98 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 2.25 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 1.29 최고 기온 : 4.95 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E155" s="6" t="n">
+      <c r="D155" s="25" t="n"/>
+      <c r="E155" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156" ht="25" customHeight="1">
-      <c r="A156" s="25" t="inlineStr">
+      <c r="A156" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B156" s="29" t="inlineStr">
+      <c r="B156" s="10" t="inlineStr">
         <is>
           <t>오늘 흐려?</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.98 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 2.25 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 1.29 최고 기온 : 4.95 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E156" s="6" t="n">
+      <c r="D156" s="25" t="n"/>
+      <c r="E156" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157" ht="25" customHeight="1">
-      <c r="A157" s="25" t="inlineStr">
+      <c r="A157" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B157" s="29" t="inlineStr">
+      <c r="B157" s="10" t="inlineStr">
         <is>
           <t>오늘 눈 와?</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.98 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 2.25 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 1.29 최고 기온 : 4.95 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E157" s="6" t="n">
+      <c r="D157" s="25" t="n"/>
+      <c r="E157" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="158" ht="25" customHeight="1">
-      <c r="A158" s="25" t="inlineStr">
+      <c r="A158" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B158" s="29" t="inlineStr">
+      <c r="B158" s="10" t="inlineStr">
         <is>
           <t>오늘 기온을 알려줘</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.98 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 2.25 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 1.29 최고 기온 : 4.95 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E158" s="6" t="n">
+      <c r="D158" s="25" t="n"/>
+      <c r="E158" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159" ht="25" customHeight="1">
-      <c r="A159" s="25" t="inlineStr">
+      <c r="A159" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B159" s="29" t="inlineStr">
+      <c r="B159" s="10" t="inlineStr">
         <is>
           <t>오늘 날씨가 궁금해</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.98 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 10.94 최고 기온 : 12.94 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 2.25 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 1.29 최고 기온 : 4.95 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E159" s="6" t="n">
+      <c r="D159" s="25" t="n"/>
+      <c r="E159" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="160" ht="25" customHeight="1">
-      <c r="A160" s="25" t="inlineStr">
+      <c r="A160" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B160" s="25" t="inlineStr">
+      <c r="B160" s="10" t="inlineStr">
         <is>
           <t>오늘 날씨 몇 도야?</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.39 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 27일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 1.1 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 0.14 최고 기온 : 2.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E160" s="6" t="n">
+      <c r="D160" s="25" t="n"/>
+      <c r="E160" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161" ht="25" customHeight="1">
-      <c r="A161" s="25" t="inlineStr">
+      <c r="A161" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B161" s="29" t="inlineStr">
+      <c r="B161" s="10" t="inlineStr">
         <is>
           <t>내일 날씨 알려줘</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.39 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 27일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 1.1 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 0.14 최고 기온 : 2.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E161" s="6" t="n">
+      <c r="D161" s="25" t="n"/>
+      <c r="E161" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162" ht="25" customHeight="1">
-      <c r="A162" s="25" t="inlineStr">
+      <c r="A162" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B162" s="29" t="inlineStr">
+      <c r="B162" s="10" t="inlineStr">
         <is>
           <t>내일 비 와?</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.39 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 27일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 1.1 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 0.14 최고 기온 : 2.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E162" s="6" t="n">
+      <c r="D162" s="25" t="n"/>
+      <c r="E162" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163" ht="25" customHeight="1">
-      <c r="A163" s="25" t="inlineStr">
+      <c r="A163" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B163" s="29" t="inlineStr">
+      <c r="B163" s="10" t="inlineStr">
         <is>
           <t>내일 맑아?</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.39 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 27일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 1.1 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 0.14 최고 기온 : 2.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E163" s="6" t="n">
+      <c r="D163" s="25" t="n"/>
+      <c r="E163" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164" ht="25" customHeight="1">
-      <c r="A164" s="25" t="inlineStr">
+      <c r="A164" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B164" s="29" t="inlineStr">
+      <c r="B164" s="10" t="inlineStr">
         <is>
           <t>내일 흐려?</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.39 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 27일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 1.1 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 0.14 최고 기온 : 2.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E164" s="6" t="n">
+      <c r="D164" s="25" t="n"/>
+      <c r="E164" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="165" ht="25" customHeight="1">
-      <c r="A165" s="25" t="inlineStr">
+      <c r="A165" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B165" s="29" t="inlineStr">
+      <c r="B165" s="10" t="inlineStr">
         <is>
           <t>내일 눈 와?</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.39 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 27일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 1.1 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 0.14 최고 기온 : 2.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E165" s="6" t="n">
+      <c r="D165" s="25" t="n"/>
+      <c r="E165" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166" ht="25" customHeight="1">
-      <c r="A166" s="25" t="inlineStr">
+      <c r="A166" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B166" s="25" t="inlineStr">
+      <c r="B166" s="10" t="inlineStr">
         <is>
           <t>내일 기온을 알려줘</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.39 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 27일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 1.1 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 0.14 최고 기온 : 2.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E166" s="6" t="n">
+      <c r="D166" s="25" t="n"/>
+      <c r="E166" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167" ht="25" customHeight="1">
-      <c r="A167" s="25" t="inlineStr">
+      <c r="A167" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
         </is>
       </c>
-      <c r="B167" s="29" t="inlineStr">
+      <c r="B167" s="10" t="inlineStr">
         <is>
           <t>내일 기온은 어때?</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.39 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
-최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 27일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 1.1 &lt;br&gt;
+날씨 : 눈 &lt;br&gt;
+최저 기온 : 0.14 최고 기온 : 2.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E167" s="6" t="n">
+      <c r="D167" s="25" t="n"/>
+      <c r="E167" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168" ht="28" customHeight="1">
-      <c r="A168" s="32" t="inlineStr">
+      <c r="A168" s="16" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B168" s="33" t="inlineStr">
+      <c r="B168" s="19" t="inlineStr">
         <is>
           <t>홍대 기본 상식에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C168" s="14" t="inlineStr">
+      <c r="C168" s="16" t="inlineStr">
         <is>
           <t>홍익대학교에 대한 어떤 정보를 알려드릴까요?</t>
         </is>
       </c>
-      <c r="D168" s="14" t="inlineStr">
+      <c r="D168" s="16" t="inlineStr">
         <is>
           <t>마스코트, 총장님, 상징물, 교가, 교색, 연혁, 교육이념, 현재 현황</t>
         </is>
       </c>
-      <c r="E168" s="6" t="n">
+      <c r="E168" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="169" ht="28" customHeight="1">
-      <c r="A169" s="32" t="inlineStr">
+      <c r="A169" s="16" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B169" s="33" t="inlineStr">
+      <c r="B169" s="19" t="inlineStr">
         <is>
           <t>학교에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C169" s="14" t="inlineStr">
+      <c r="C169" s="16" t="inlineStr">
         <is>
           <t>홍익대학교에 대한 어떤 정보를 알려드릴까요?</t>
         </is>
       </c>
-      <c r="D169" s="14" t="inlineStr">
+      <c r="D169" s="16" t="inlineStr">
         <is>
           <t>마스코트, 총장님, 상징물, 교가, 교색, 연혁, 교육이념, 현재 현황</t>
         </is>
       </c>
-      <c r="E169" s="6" t="n">
+      <c r="E169" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="170" ht="28" customHeight="1">
-      <c r="A170" s="25" t="inlineStr">
+      <c r="A170" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B170" s="34" t="inlineStr">
+      <c r="B170" s="20" t="inlineStr">
         <is>
           <t>마스코트는 누구야?</t>
         </is>
@@ -4923,17 +4928,18 @@
 피카소라고 불리는 황소도 있습니다. &gt;&lt;</t>
         </is>
       </c>
-      <c r="E170" s="6" t="n">
+      <c r="D170" s="25" t="n"/>
+      <c r="E170" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171" ht="28" customHeight="1">
-      <c r="A171" s="25" t="inlineStr">
+      <c r="A171" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B171" s="34" t="inlineStr">
+      <c r="B171" s="20" t="inlineStr">
         <is>
           <t>마스코트에 대해 알려줘</t>
         </is>
@@ -4944,17 +4950,18 @@
 피카소라고 불리는 황소도 있습니다. &gt;&lt;</t>
         </is>
       </c>
-      <c r="E171" s="6" t="n">
+      <c r="D171" s="25" t="n"/>
+      <c r="E171" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="172" ht="28" customHeight="1">
-      <c r="A172" s="25" t="inlineStr">
+      <c r="A172" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B172" s="34" t="inlineStr">
+      <c r="B172" s="20" t="inlineStr">
         <is>
           <t>학교를 대표하는 캐릭터를 알려줘</t>
         </is>
@@ -4965,17 +4972,18 @@
 피카소라고 불리는 황소도 있습니다. &gt;&lt;</t>
         </is>
       </c>
-      <c r="E172" s="6" t="n">
+      <c r="D172" s="25" t="n"/>
+      <c r="E172" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173" ht="28" customHeight="1">
-      <c r="A173" s="25" t="inlineStr">
+      <c r="A173" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B173" s="34" t="inlineStr">
+      <c r="B173" s="20" t="inlineStr">
         <is>
           <t>총장님에 대해 알려줘</t>
         </is>
@@ -4985,17 +4993,18 @@
           <t>20대 총장님은 양현석 총장님입니다.</t>
         </is>
       </c>
-      <c r="E173" s="6" t="n">
+      <c r="D173" s="25" t="n"/>
+      <c r="E173" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="174" ht="28" customHeight="1">
-      <c r="A174" s="25" t="inlineStr">
+      <c r="A174" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B174" s="34" t="inlineStr">
+      <c r="B174" s="20" t="inlineStr">
         <is>
           <t>총장님이 누구야?</t>
         </is>
@@ -5005,17 +5014,18 @@
           <t>20대 총장님은 양현석 총장님입니다.</t>
         </is>
       </c>
-      <c r="E174" s="6" t="n">
+      <c r="D174" s="25" t="n"/>
+      <c r="E174" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175" ht="28" customHeight="1">
-      <c r="A175" s="25" t="inlineStr">
+      <c r="A175" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B175" s="34" t="inlineStr">
+      <c r="B175" s="20" t="inlineStr">
         <is>
           <t>학교를 대표하는 상징물은 무엇이 있어?</t>
         </is>
@@ -5025,17 +5035,18 @@
           <t>홍익대학교에는 영원한 미소라는 멋진 상징물이 있어요. :)</t>
         </is>
       </c>
-      <c r="E175" s="6" t="n">
+      <c r="D175" s="25" t="n"/>
+      <c r="E175" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="176" ht="28" customHeight="1">
-      <c r="A176" s="25" t="inlineStr">
+      <c r="A176" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B176" s="34" t="inlineStr">
+      <c r="B176" s="20" t="inlineStr">
         <is>
           <t>영원한 미소에 대해 알려줘</t>
         </is>
@@ -5045,17 +5056,18 @@
           <t>홍익대학교에는 영원한 미소라는 멋진 상징물이 있어요. :)</t>
         </is>
       </c>
-      <c r="E176" s="6" t="n">
+      <c r="D176" s="25" t="n"/>
+      <c r="E176" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177" ht="28" customHeight="1">
-      <c r="A177" s="25" t="inlineStr">
+      <c r="A177" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B177" s="34" t="inlineStr">
+      <c r="B177" s="20" t="inlineStr">
         <is>
           <t>교가에 대해 알려줘</t>
         </is>
@@ -5070,17 +5082,18 @@
 &lt;a href="https://www.hongik.ac.kr/kr/introduction/song-hongik.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E177" s="6" t="n">
+      <c r="D177" s="25" t="n"/>
+      <c r="E177" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178" ht="28" customHeight="1">
-      <c r="A178" s="25" t="inlineStr">
+      <c r="A178" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B178" s="34" t="inlineStr">
+      <c r="B178" s="20" t="inlineStr">
         <is>
           <t>교가가 뭐야</t>
         </is>
@@ -5095,17 +5108,18 @@
 &lt;a href="https://www.hongik.ac.kr/kr/introduction/song-hongik.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E178" s="6" t="n">
+      <c r="D178" s="25" t="n"/>
+      <c r="E178" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179" ht="28" customHeight="1">
-      <c r="A179" s="25" t="inlineStr">
+      <c r="A179" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B179" s="34" t="inlineStr">
+      <c r="B179" s="20" t="inlineStr">
         <is>
           <t>학교 교가에 대해 알려줘</t>
         </is>
@@ -5120,17 +5134,18 @@
 &lt;a href="https://www.hongik.ac.kr/kr/introduction/song-hongik.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E179" s="6" t="n">
+      <c r="D179" s="25" t="n"/>
+      <c r="E179" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180" ht="28" customHeight="1">
-      <c r="A180" s="25" t="inlineStr">
+      <c r="A180" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B180" s="34" t="inlineStr">
+      <c r="B180" s="20" t="inlineStr">
         <is>
           <t>교색에 대해 알려줘</t>
         </is>
@@ -5140,17 +5155,18 @@
           <t>홍익대학교의 교색은 파란색입니다.</t>
         </is>
       </c>
-      <c r="E180" s="6" t="n">
+      <c r="D180" s="25" t="n"/>
+      <c r="E180" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181" ht="28" customHeight="1">
-      <c r="A181" s="25" t="inlineStr">
+      <c r="A181" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B181" s="34" t="inlineStr">
+      <c r="B181" s="20" t="inlineStr">
         <is>
           <t>교색이 뭐야</t>
         </is>
@@ -5160,17 +5176,18 @@
           <t>홍익대학교의 교색은 파란색입니다.</t>
         </is>
       </c>
-      <c r="E181" s="6" t="n">
+      <c r="D181" s="25" t="n"/>
+      <c r="E181" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182" ht="28" customHeight="1">
-      <c r="A182" s="25" t="inlineStr">
+      <c r="A182" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B182" s="34" t="inlineStr">
+      <c r="B182" s="20" t="inlineStr">
         <is>
           <t>학교 교색에 대해 알려줘</t>
         </is>
@@ -5180,17 +5197,18 @@
           <t>홍익대학교의 교색은 파란색입니다.</t>
         </is>
       </c>
-      <c r="E182" s="6" t="n">
+      <c r="D182" s="25" t="n"/>
+      <c r="E182" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183" ht="28" customHeight="1">
-      <c r="A183" s="25" t="inlineStr">
+      <c r="A183" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B183" s="34" t="inlineStr">
+      <c r="B183" s="20" t="inlineStr">
         <is>
           <t>학교 연혁에 대해 알려줘</t>
         </is>
@@ -5200,17 +5218,18 @@
           <t xml:space="preserve">학교의 역사는 &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt; </t>
         </is>
       </c>
-      <c r="E183" s="6" t="n">
+      <c r="D183" s="25" t="n"/>
+      <c r="E183" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="184" ht="28" customHeight="1">
-      <c r="A184" s="25" t="inlineStr">
+      <c r="A184" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B184" s="34" t="inlineStr">
+      <c r="B184" s="20" t="inlineStr">
         <is>
           <t>연혁에 대해 알려줘</t>
         </is>
@@ -5222,17 +5241,18 @@
 공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E184" s="6" t="n">
+      <c r="D184" s="25" t="n"/>
+      <c r="E184" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185" ht="28" customHeight="1">
-      <c r="A185" s="25" t="inlineStr">
+      <c r="A185" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B185" s="34" t="inlineStr">
+      <c r="B185" s="20" t="inlineStr">
         <is>
           <t>학교 교육이념에 대해 알려줘</t>
         </is>
@@ -5244,17 +5264,18 @@
 공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E185" s="6" t="n">
+      <c r="D185" s="25" t="n"/>
+      <c r="E185" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186" ht="28" customHeight="1">
-      <c r="A186" s="25" t="inlineStr">
+      <c r="A186" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B186" s="34" t="inlineStr">
+      <c r="B186" s="20" t="inlineStr">
         <is>
           <t>교육이념에 대해 알려줘</t>
         </is>
@@ -5266,17 +5287,18 @@
 공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E186" s="6" t="n">
+      <c r="D186" s="25" t="n"/>
+      <c r="E186" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187" ht="28" customHeight="1">
-      <c r="A187" s="25" t="inlineStr">
+      <c r="A187" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B187" s="34" t="inlineStr">
+      <c r="B187" s="20" t="inlineStr">
         <is>
           <t>학교 발전 목표를 알려줘</t>
         </is>
@@ -5288,17 +5310,18 @@
 공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E187" s="6" t="n">
+      <c r="D187" s="25" t="n"/>
+      <c r="E187" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188" ht="28" customHeight="1">
-      <c r="A188" s="25" t="inlineStr">
+      <c r="A188" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B188" s="34" t="inlineStr">
+      <c r="B188" s="20" t="inlineStr">
         <is>
           <t>발전 목표를 알려줘</t>
         </is>
@@ -5310,17 +5333,18 @@
 공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E188" s="6" t="n">
+      <c r="D188" s="25" t="n"/>
+      <c r="E188" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189" ht="28" customHeight="1">
-      <c r="A189" s="25" t="inlineStr">
+      <c r="A189" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B189" s="34" t="inlineStr">
+      <c r="B189" s="20" t="inlineStr">
         <is>
           <t>학교 현재 현황에 대해 알려줘</t>
         </is>
@@ -5330,17 +5354,18 @@
           <t xml:space="preserve">학교의 역사는 &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt; </t>
         </is>
       </c>
-      <c r="E189" s="6" t="n">
+      <c r="D189" s="25" t="n"/>
+      <c r="E189" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190" ht="28" customHeight="1">
-      <c r="A190" s="25" t="inlineStr">
+      <c r="A190" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B190" s="34" t="inlineStr">
+      <c r="B190" s="20" t="inlineStr">
         <is>
           <t>현재 현황에 대해 알려줘</t>
         </is>
@@ -5350,7 +5375,8 @@
           <t xml:space="preserve">학교의 역사는 &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt; </t>
         </is>
       </c>
-      <c r="E190" s="6" t="n">
+      <c r="D190" s="25" t="n"/>
+      <c r="E190" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,7 +5386,7 @@
           <t>졸업 요건</t>
         </is>
       </c>
-      <c r="B191" s="4" t="inlineStr">
+      <c r="B191" s="6" t="inlineStr">
         <is>
           <t>졸업요건을 알려줘</t>
         </is>
@@ -5430,7 +5456,8 @@
 자세한 내용은 클래스넷에서 확인하세요.</t>
         </is>
       </c>
-      <c r="E191" s="6" t="n">
+      <c r="D191" s="25" t="n"/>
+      <c r="E191" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5440,7 +5467,7 @@
           <t>졸업 요건</t>
         </is>
       </c>
-      <c r="B192" s="4" t="inlineStr">
+      <c r="B192" s="6" t="inlineStr">
         <is>
           <t>졸업 학점을 알려줘</t>
         </is>
@@ -5510,17 +5537,18 @@
 자세한 내용은 클래스넷에서 확인하세요.</t>
         </is>
       </c>
-      <c r="E192" s="6" t="n">
+      <c r="D192" s="25" t="n"/>
+      <c r="E192" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193" ht="25" customHeight="1">
-      <c r="A193" s="25" t="inlineStr">
+      <c r="A193" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B193" s="22" t="inlineStr">
+      <c r="B193" s="6" t="inlineStr">
         <is>
           <t>열람실 현황 알려줘</t>
         </is>
@@ -5538,17 +5566,17 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E193" s="6" t="n">
+      <c r="E193" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="194" ht="25" customHeight="1">
-      <c r="A194" s="25" t="inlineStr">
+      <c r="A194" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B194" s="22" t="inlineStr">
+      <c r="B194" s="6" t="inlineStr">
         <is>
           <t>지금 열람실에 자리가 있니?</t>
         </is>
@@ -5566,17 +5594,17 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E194" s="6" t="n">
+      <c r="E194" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="195" ht="25" customHeight="1">
-      <c r="A195" s="25" t="inlineStr">
+      <c r="A195" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B195" s="22" t="inlineStr">
+      <c r="B195" s="6" t="inlineStr">
         <is>
           <t>열람실 자리 현황을 알려줘</t>
         </is>
@@ -5594,17 +5622,17 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E195" s="6" t="n">
+      <c r="E195" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="196" ht="25" customHeight="1">
-      <c r="A196" s="25" t="inlineStr">
+      <c r="A196" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B196" s="22" t="inlineStr">
+      <c r="B196" s="6" t="inlineStr">
         <is>
           <t>T동 열람실 현황 알려줘</t>
         </is>
@@ -5622,17 +5650,17 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E196" s="6" t="n">
+      <c r="E196" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="197" ht="25" customHeight="1">
-      <c r="A197" s="25" t="inlineStr">
+      <c r="A197" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B197" s="22" t="inlineStr">
+      <c r="B197" s="6" t="inlineStr">
         <is>
           <t>R동 열람실 현황 알려줘</t>
         </is>
@@ -5650,17 +5678,17 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E197" s="6" t="n">
+      <c r="E197" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="198" ht="25" customHeight="1">
-      <c r="A198" s="25" t="inlineStr">
+      <c r="A198" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B198" s="23" t="inlineStr">
+      <c r="B198" s="6" t="inlineStr">
         <is>
           <t>법학 도서관(R동) 열람실 현황에 대해 알려줘</t>
         </is>
@@ -5678,17 +5706,17 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E198" s="6" t="n">
+      <c r="E198" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="199" ht="25" customHeight="1">
-      <c r="A199" s="25" t="inlineStr">
+      <c r="A199" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B199" s="22" t="inlineStr">
+      <c r="B199" s="6" t="inlineStr">
         <is>
           <t>H동 열람실 현황 알려줘</t>
         </is>
@@ -5706,17 +5734,17 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E199" s="6" t="n">
+      <c r="E199" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="200" ht="25" customHeight="1">
-      <c r="A200" s="25" t="inlineStr">
+      <c r="A200" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B200" s="22" t="inlineStr">
+      <c r="B200" s="6" t="inlineStr">
         <is>
           <t>중앙도서관(H동) 열람실 현황에 대해 알려줘</t>
         </is>
@@ -5734,17 +5762,17 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E200" s="6" t="n">
+      <c r="E200" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1">
-      <c r="A201" s="25" t="inlineStr">
+      <c r="A201" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B201" s="11" t="inlineStr">
+      <c r="B201" s="15" t="inlineStr">
         <is>
           <t>학교 도서관에 대해 알려줘</t>
         </is>
@@ -5754,17 +5782,18 @@
           <t>홍익대학교 서울 캠퍼스 내에는 H동에 중앙도서관, R동에 법학도서관이 있습니다!</t>
         </is>
       </c>
-      <c r="E201" s="6" t="n">
+      <c r="D201" s="25" t="n"/>
+      <c r="E201" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="202" ht="25" customHeight="1">
-      <c r="A202" s="25" t="inlineStr">
+      <c r="A202" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B202" s="11" t="inlineStr">
+      <c r="B202" s="15" t="inlineStr">
         <is>
           <t>중앙도서관에 대해 알려줘</t>
         </is>
@@ -5786,17 +5815,17 @@
         </is>
       </c>
       <c r="D202" s="3" t="n"/>
-      <c r="E202" s="6" t="n">
+      <c r="E202" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="203" ht="25" customHeight="1">
-      <c r="A203" s="25" t="inlineStr">
+      <c r="A203" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B203" s="11" t="inlineStr">
+      <c r="B203" s="15" t="inlineStr">
         <is>
           <t>법학도서관에 대해 알려줘</t>
         </is>
@@ -5821,17 +5850,18 @@
 연중 무휴&lt;br&gt;</t>
         </is>
       </c>
-      <c r="E203" s="6" t="n">
+      <c r="D203" s="25" t="n"/>
+      <c r="E203" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204" ht="25" customHeight="1">
-      <c r="A204" s="25" t="inlineStr">
+      <c r="A204" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B204" s="11" t="inlineStr">
+      <c r="B204" s="15" t="inlineStr">
         <is>
           <t>도서관 위치를 알려줘</t>
         </is>
@@ -5842,24 +5872,25 @@
 법학도서관은 홍문관(R동) 8층에 위치해 있습니다!&lt;br&gt;</t>
         </is>
       </c>
-      <c r="E204" s="6" t="n">
+      <c r="D204" s="25" t="n"/>
+      <c r="E204" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="205" ht="25" customHeight="1">
-      <c r="A205" s="25" t="inlineStr">
+      <c r="A205" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B205" s="25" t="inlineStr">
+      <c r="B205" s="10" t="inlineStr">
         <is>
           <t>열람실 위치를 알려줘</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>&lt;운영시간&gt; &lt;br&gt;
+          <t>열람실 운영시간 안내 &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
 T동 : 06:00 ~ 23:00 (1개 열람실은 24시간 개방) &lt;br&gt;
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
@@ -5870,24 +5901,24 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E205" s="6" t="n">
+      <c r="E205" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="206" ht="25" customHeight="1">
-      <c r="A206" s="25" t="inlineStr">
+      <c r="A206" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B206" s="25" t="inlineStr">
+      <c r="B206" s="10" t="inlineStr">
         <is>
           <t>열람실 운영시간을 알려줘</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>&lt;운영시간&gt; &lt;br&gt;
+          <t>열람실 운영시간 안내 &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
 T동 : 06:00 ~ 23:00 (1개 열람실은 24시간 개방) &lt;br&gt;
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
@@ -5898,24 +5929,24 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E206" s="6" t="n">
+      <c r="E206" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="207" ht="25" customHeight="1">
-      <c r="A207" s="25" t="inlineStr">
+      <c r="A207" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B207" s="25" t="inlineStr">
+      <c r="B207" s="10" t="inlineStr">
         <is>
           <t>열람실 개방시간을 알려줘</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>&lt;운영시간&gt; &lt;br&gt;
+          <t>열람실 운영시간 안내 &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
 T동 : 06:00 ~ 23:00 (1개 열람실은 24시간 개방) &lt;br&gt;
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
@@ -5926,104 +5957,106 @@
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E207" s="6" t="n">
+      <c r="E207" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="208" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A208" s="14" t="inlineStr">
+    <row r="208" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A208" s="16" t="inlineStr">
         <is>
           <t>인사</t>
         </is>
       </c>
-      <c r="B208" s="15" t="inlineStr">
+      <c r="B208" s="21" t="inlineStr">
         <is>
           <t>안녕</t>
         </is>
       </c>
-      <c r="C208" s="16" t="inlineStr">
+      <c r="C208" s="10" t="inlineStr">
         <is>
           <t>안녕하세요! 반가워요</t>
         </is>
       </c>
       <c r="D208" s="3" t="n"/>
-      <c r="E208" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A209" s="16" t="inlineStr">
+      <c r="E208" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A209" s="10" t="inlineStr">
         <is>
           <t>인사</t>
         </is>
       </c>
-      <c r="B209" s="17" t="inlineStr">
+      <c r="B209" s="21" t="inlineStr">
         <is>
           <t>안녕하세요</t>
         </is>
       </c>
-      <c r="C209" s="16" t="inlineStr">
+      <c r="C209" s="10" t="inlineStr">
         <is>
           <t>안녕하세요! 반가워요</t>
         </is>
       </c>
       <c r="D209" s="3" t="n"/>
-      <c r="E209" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A210" s="16" t="inlineStr">
+      <c r="E209" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A210" s="10" t="inlineStr">
         <is>
           <t>인사</t>
         </is>
       </c>
-      <c r="B210" s="17" t="inlineStr">
+      <c r="B210" s="21" t="inlineStr">
         <is>
           <t>하이</t>
         </is>
       </c>
-      <c r="C210" s="16" t="inlineStr">
+      <c r="C210" s="10" t="inlineStr">
         <is>
           <t>안녕하세요! 반가워요</t>
         </is>
       </c>
-      <c r="E210" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A211" s="16" t="inlineStr">
+      <c r="D210" s="22" t="n"/>
+      <c r="E210" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A211" s="10" t="inlineStr">
         <is>
           <t>인사</t>
         </is>
       </c>
-      <c r="B211" s="15" t="inlineStr">
+      <c r="B211" s="21" t="inlineStr">
         <is>
           <t>하이하이</t>
         </is>
       </c>
-      <c r="C211" s="16" t="inlineStr">
+      <c r="C211" s="10" t="inlineStr">
         <is>
           <t>안녕하세요! 반가워요</t>
         </is>
       </c>
-      <c r="E211" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A212" s="16" t="inlineStr">
+      <c r="D211" s="22" t="n"/>
+      <c r="E211" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A212" s="10" t="inlineStr">
         <is>
           <t>자기소개</t>
         </is>
       </c>
-      <c r="B212" s="17" t="inlineStr">
+      <c r="B212" s="21" t="inlineStr">
         <is>
           <t>너는 누구야?</t>
         </is>
       </c>
-      <c r="C212" s="19" t="inlineStr">
+      <c r="C212" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
@@ -6031,22 +6064,23 @@
 </t>
         </is>
       </c>
-      <c r="E212" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A213" s="16" t="inlineStr">
+      <c r="D212" s="22" t="n"/>
+      <c r="E212" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A213" s="10" t="inlineStr">
         <is>
           <t>자기소개</t>
         </is>
       </c>
-      <c r="B213" s="15" t="inlineStr">
+      <c r="B213" s="21" t="inlineStr">
         <is>
           <t>너가 누구야?</t>
         </is>
       </c>
-      <c r="C213" s="19" t="inlineStr">
+      <c r="C213" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
@@ -6054,22 +6088,23 @@
 </t>
         </is>
       </c>
-      <c r="E213" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A214" s="16" t="inlineStr">
+      <c r="D213" s="22" t="n"/>
+      <c r="E213" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A214" s="10" t="inlineStr">
         <is>
           <t>자기소개</t>
         </is>
       </c>
-      <c r="B214" s="17" t="inlineStr">
+      <c r="B214" s="21" t="inlineStr">
         <is>
           <t>니 이름이 뭐야?</t>
         </is>
       </c>
-      <c r="C214" s="19" t="inlineStr">
+      <c r="C214" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
@@ -6077,22 +6112,23 @@
 </t>
         </is>
       </c>
-      <c r="E214" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" ht="25" customFormat="1" customHeight="1" s="8">
-      <c r="A215" s="16" t="inlineStr">
+      <c r="D214" s="22" t="n"/>
+      <c r="E214" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" ht="25" customFormat="1" customHeight="1" s="12">
+      <c r="A215" s="10" t="inlineStr">
         <is>
           <t>자기소개</t>
         </is>
       </c>
-      <c r="B215" s="15" t="inlineStr">
+      <c r="B215" s="21" t="inlineStr">
         <is>
           <t>너에 대해 소개해줘</t>
         </is>
       </c>
-      <c r="C215" s="19" t="inlineStr">
+      <c r="C215" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
@@ -6100,12 +6136,25 @@
 </t>
         </is>
       </c>
-      <c r="E215" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" ht="59" customHeight="1"/>
-    <row r="217" ht="61.5" customHeight="1"/>
+      <c r="D215" s="22" t="n"/>
+      <c r="E215" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" ht="59" customHeight="1">
+      <c r="A216" s="25" t="n"/>
+      <c r="B216" s="25" t="n"/>
+      <c r="C216" s="25" t="n"/>
+      <c r="D216" s="25" t="n"/>
+      <c r="E216" s="26" t="n"/>
+    </row>
+    <row r="217" ht="61.5" customHeight="1">
+      <c r="A217" s="25" t="n"/>
+      <c r="B217" s="25" t="n"/>
+      <c r="C217" s="25" t="n"/>
+      <c r="D217" s="25" t="n"/>
+      <c r="E217" s="26" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
